--- a/Document/表设计.xlsx
+++ b/Document/表设计.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7860" firstSheet="3" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7860" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="微信公众平台" sheetId="1" r:id="rId1"/>
@@ -12,21 +12,22 @@
     <sheet name="连锁餐厅信息" sheetId="3" r:id="rId3"/>
     <sheet name="餐厅" sheetId="4" r:id="rId4"/>
     <sheet name="餐厅详细" sheetId="5" r:id="rId5"/>
-    <sheet name="食物分类" sheetId="6" r:id="rId6"/>
-    <sheet name="食物" sheetId="7" r:id="rId7"/>
-    <sheet name="食物详细" sheetId="8" r:id="rId8"/>
-    <sheet name="购物车" sheetId="9" r:id="rId9"/>
-    <sheet name="用户订单" sheetId="10" r:id="rId10"/>
-    <sheet name="用户订单明细" sheetId="11" r:id="rId11"/>
-    <sheet name="订单流水" sheetId="12" r:id="rId12"/>
+    <sheet name="饭菜分类" sheetId="6" r:id="rId6"/>
+    <sheet name="饭菜" sheetId="7" r:id="rId7"/>
+    <sheet name="饭菜详细" sheetId="8" r:id="rId8"/>
+    <sheet name="饭菜风格" sheetId="13" r:id="rId9"/>
+    <sheet name="购物车" sheetId="9" r:id="rId10"/>
+    <sheet name="用户订单" sheetId="10" r:id="rId11"/>
+    <sheet name="用户订单明细" sheetId="11" r:id="rId12"/>
+    <sheet name="订单流水" sheetId="12" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="125725"/>
   <extLst/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="201">
   <si>
     <r>
       <rPr>
@@ -567,20 +568,223 @@
     <t>菜(food)</t>
   </si>
   <si>
-    <t>统计分类排序</t>
+    <t>cate_id</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属分类id(对应food_category.id)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>cate_id</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>空字符串</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属分类字符串(sphinx模糊搜索用)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>dining_name</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>餐厅名(sphinx模糊搜索用)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>food_name</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>price</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>weixin_price</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信价格</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>原价(销售价格)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>cost_price</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>成本价格</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>unit</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>stock</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>库存</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品描述</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>view_times</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>浏览次数</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>comment_times</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>评论次数</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>favorite_times</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>收藏次数</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>食物名(sphinx模糊搜索)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>sell_count</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售数量</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_hot</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>tinyint</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>热销饭菜1是0否</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_promotion</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>促销饭菜1是0否</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>style_id</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>style_name</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>饭菜风格id</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>饭菜风格(酸甜辣)sphinx模糊搜索用</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_offline</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>餐到付款1允许0禁止</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>use_envelope</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否允许用红包1允许0禁止</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>red_envelope_percent</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用红包百分比</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>use_card</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否允许使用卡卷1允许0禁止</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>饭菜详细(food_detail)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -617,6 +821,11 @@
       <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -706,26 +915,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
@@ -734,6 +928,15 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -743,26 +946,14 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="2"/>
     <cellStyle name="常规_Sheet1" xfId="1"/>
-    <cellStyle name="千位分隔" xfId="2" builtinId="3"/>
-    <cellStyle name="货币" xfId="3" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="百分比" xfId="5" builtinId="5"/>
-    <cellStyle name="货币[0]" xfId="6" builtinId="7"/>
-    <cellStyle name="常规 2" xfId="7"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -1061,6 +1252,7 @@
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
             <a:path w="21600" h="21600"/>
           </a:pathLst>
@@ -1093,15 +1285,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C2:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="3" max="3" width="16.125" customWidth="1"/>
     <col min="4" max="4" width="9.875" customWidth="1"/>
@@ -1109,550 +1300,550 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:8">
-      <c r="C2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="3"/>
+      <c r="C2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="6"/>
     </row>
     <row r="3" spans="3:8">
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="3:8">
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="6">
-        <v>11</v>
-      </c>
-      <c r="F4" s="5">
-        <v>0</v>
-      </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="5" t="s">
+      <c r="D4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="3">
+        <v>11</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="3:8">
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="6">
+      <c r="D5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="3">
         <v>256</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="5" t="s">
+      <c r="G5" s="3"/>
+      <c r="H5" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="3:8">
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="6">
+      <c r="D6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="3">
         <v>256</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="5" t="s">
+      <c r="G6" s="3"/>
+      <c r="H6" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="3:8">
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="6">
+      <c r="D7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="3">
         <v>256</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="5" t="s">
+      <c r="G7" s="3"/>
+      <c r="H7" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="8" spans="3:8">
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="6">
+      <c r="D8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="3">
         <v>256</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="5" t="s">
+      <c r="G8" s="3"/>
+      <c r="H8" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="9" spans="3:8">
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="6">
+      <c r="D9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="3">
         <v>256</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="5" t="s">
+      <c r="G9" s="3"/>
+      <c r="H9" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="10" spans="3:8">
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="6">
+      <c r="D10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="3">
         <v>256</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="5" t="s">
+      <c r="G10" s="3"/>
+      <c r="H10" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="11" spans="3:8">
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="3">
         <v>32</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="6"/>
-      <c r="H11" s="5" t="s">
+      <c r="G11" s="3"/>
+      <c r="H11" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="12" spans="3:8">
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="3">
         <v>1</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="2">
         <v>1</v>
       </c>
-      <c r="G12" s="6"/>
-      <c r="H12" s="5" t="s">
+      <c r="G12" s="3"/>
+      <c r="H12" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="13" spans="3:8">
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="6">
+      <c r="D13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="3">
         <v>256</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="6"/>
-      <c r="H13" s="5" t="s">
+      <c r="G13" s="3"/>
+      <c r="H13" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1" spans="3:8">
-      <c r="C14" s="5" t="s">
+    <row r="14" spans="3:8" ht="15" customHeight="1">
+      <c r="C14" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="6">
+      <c r="D14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="3">
         <v>60</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G14" s="6"/>
-      <c r="H14" s="5" t="s">
+      <c r="G14" s="3"/>
+      <c r="H14" s="2" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="15" spans="3:8">
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="6">
+      <c r="D15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="3">
         <v>128</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G15" s="6"/>
-      <c r="H15" s="5" t="s">
+      <c r="G15" s="3"/>
+      <c r="H15" s="2" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="16" spans="3:8">
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="6">
+      <c r="D16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="3">
         <v>256</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G16" s="6"/>
-      <c r="H16" s="5" t="s">
+      <c r="G16" s="3"/>
+      <c r="H16" s="2" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="17" spans="3:8">
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="3">
         <v>1</v>
       </c>
-      <c r="F17" s="5">
-        <v>0</v>
-      </c>
-      <c r="G17" s="6"/>
-      <c r="H17" s="5" t="s">
+      <c r="F17" s="2">
+        <v>0</v>
+      </c>
+      <c r="G17" s="3"/>
+      <c r="H17" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="18" spans="3:8">
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" s="6">
+      <c r="D18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="3">
         <v>512</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G18" s="6"/>
-      <c r="H18" s="5" t="s">
+      <c r="G18" s="3"/>
+      <c r="H18" s="2" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="19" spans="3:8">
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" s="6">
-        <v>11</v>
-      </c>
-      <c r="F19" s="5">
-        <v>0</v>
-      </c>
-      <c r="G19" s="6"/>
-      <c r="H19" s="5" t="s">
+      <c r="D19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="3">
+        <v>11</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0</v>
+      </c>
+      <c r="G19" s="3"/>
+      <c r="H19" s="2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="20" spans="3:8">
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="6">
-        <v>11</v>
-      </c>
-      <c r="F20" s="5">
-        <v>0</v>
-      </c>
-      <c r="G20" s="6"/>
-      <c r="H20" s="5" t="s">
+      <c r="D20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="3">
+        <v>11</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3"/>
+      <c r="H20" s="2" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="21" spans="3:8">
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D21" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" s="6">
+      <c r="D21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="3">
         <v>255</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="F21" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G21" s="6"/>
-      <c r="H21" s="5" t="s">
+      <c r="G21" s="3"/>
+      <c r="H21" s="2" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="22" spans="3:8">
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D22" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" s="6">
-        <v>11</v>
-      </c>
-      <c r="F22" s="5">
-        <v>0</v>
-      </c>
-      <c r="G22" s="6"/>
-      <c r="H22" s="5" t="s">
+      <c r="D22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="3">
+        <v>11</v>
+      </c>
+      <c r="F22" s="2">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3"/>
+      <c r="H22" s="2" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="23" spans="3:8">
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23" s="3">
         <v>1</v>
       </c>
-      <c r="F23" s="5">
-        <v>0</v>
-      </c>
-      <c r="G23" s="6"/>
-      <c r="H23" s="5" t="s">
+      <c r="F23" s="2">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3"/>
+      <c r="H23" s="2" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="24" spans="3:8">
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E24" s="3">
         <v>1</v>
       </c>
-      <c r="F24" s="5">
-        <v>0</v>
-      </c>
-      <c r="G24" s="6"/>
-      <c r="H24" s="5" t="s">
+      <c r="F24" s="2">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3"/>
+      <c r="H24" s="2" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="25" spans="3:8">
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E25" s="6"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="5" t="s">
+      <c r="E25" s="3"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="2" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="26" spans="3:8">
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E26" s="3">
         <v>4</v>
       </c>
-      <c r="F26" s="5">
+      <c r="F26" s="2">
         <v>1</v>
       </c>
-      <c r="G26" s="6"/>
-      <c r="H26" s="5" t="s">
+      <c r="G26" s="3"/>
+      <c r="H26" s="2" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="27" spans="3:8">
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E27" s="6">
+      <c r="E27" s="3">
         <v>1</v>
       </c>
-      <c r="F27" s="5">
-        <v>0</v>
-      </c>
-      <c r="G27" s="6"/>
-      <c r="H27" s="5" t="s">
+      <c r="F27" s="2">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3"/>
+      <c r="H27" s="2" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="28" spans="3:8">
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D28" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E28" s="6">
+      <c r="E28" s="3">
         <v>10</v>
       </c>
-      <c r="F28" s="5">
-        <v>0</v>
-      </c>
-      <c r="G28" s="6"/>
-      <c r="H28" s="5" t="s">
+      <c r="F28" s="2">
+        <v>0</v>
+      </c>
+      <c r="G28" s="3"/>
+      <c r="H28" s="2" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="29" spans="3:8">
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D29" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="6">
-        <v>11</v>
-      </c>
-      <c r="F29" s="5">
-        <v>0</v>
-      </c>
-      <c r="G29" s="6"/>
-      <c r="H29" s="5" t="s">
+      <c r="D29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="3">
+        <v>11</v>
+      </c>
+      <c r="F29" s="2">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3"/>
+      <c r="H29" s="2" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="30" spans="3:8">
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D30" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E30" s="6">
-        <v>11</v>
-      </c>
-      <c r="F30" s="5">
-        <v>0</v>
-      </c>
-      <c r="G30" s="6"/>
-      <c r="H30" s="5" t="s">
+      <c r="D30" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="3">
+        <v>11</v>
+      </c>
+      <c r="F30" s="2">
+        <v>0</v>
+      </c>
+      <c r="G30" s="3"/>
+      <c r="H30" s="2" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="31" spans="3:8">
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D31" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E31" s="6">
-        <v>11</v>
-      </c>
-      <c r="F31" s="5">
-        <v>0</v>
-      </c>
-      <c r="G31" s="6"/>
-      <c r="H31" s="5" t="s">
+      <c r="D31" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" s="3">
+        <v>11</v>
+      </c>
+      <c r="F31" s="2">
+        <v>0</v>
+      </c>
+      <c r="G31" s="3"/>
+      <c r="H31" s="2" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="32" spans="3:8">
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D32" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E32" s="6">
-        <v>11</v>
-      </c>
-      <c r="F32" s="5">
-        <v>0</v>
-      </c>
-      <c r="G32" s="6"/>
-      <c r="H32" s="5" t="s">
+      <c r="D32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="3">
+        <v>11</v>
+      </c>
+      <c r="F32" s="2">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3"/>
+      <c r="H32" s="2" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1660,15 +1851,32 @@
   <mergeCells count="1">
     <mergeCell ref="C2:H2"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetData/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1677,15 +1885,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1694,15 +1902,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1711,22 +1919,22 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C2:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="3" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="9.875" customWidth="1"/>
@@ -1734,230 +1942,230 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:8">
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="3"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="6"/>
     </row>
     <row r="3" spans="3:8">
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="3:8">
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="6">
-        <v>11</v>
-      </c>
-      <c r="F4" s="5">
-        <v>0</v>
-      </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="5" t="s">
+      <c r="D4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="3">
+        <v>11</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="3:8">
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="6">
-        <v>11</v>
-      </c>
-      <c r="F5" s="6">
-        <v>0</v>
-      </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="5" t="s">
+      <c r="D5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="3">
+        <v>11</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="2" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="6" spans="3:8">
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="6">
-        <v>11</v>
-      </c>
-      <c r="F6" s="5">
-        <v>0</v>
-      </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="5" t="s">
+      <c r="D6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="3">
+        <v>11</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="2" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="7" spans="3:8">
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="3">
         <v>10</v>
       </c>
-      <c r="F7" s="5">
-        <v>0</v>
-      </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="5" t="s">
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="2" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="8" spans="3:8">
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="6">
+      <c r="D8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="3">
         <v>6</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="5" t="s">
+      <c r="G8" s="3"/>
+      <c r="H8" s="2" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="9" spans="3:8">
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="3">
         <v>6</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="2">
         <v>1</v>
       </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="5" t="s">
+      <c r="G9" s="3"/>
+      <c r="H9" s="2" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="10" spans="3:8">
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="3">
         <v>1</v>
       </c>
-      <c r="F10" s="5">
-        <v>0</v>
-      </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="5" t="s">
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="2" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="11" spans="3:8">
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="3">
         <v>10</v>
       </c>
-      <c r="F11" s="5">
-        <v>0</v>
-      </c>
-      <c r="G11" s="6"/>
-      <c r="H11" s="5" t="s">
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="2" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="12" spans="3:8">
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="6">
-        <v>11</v>
-      </c>
-      <c r="F12" s="5">
-        <v>0</v>
-      </c>
-      <c r="G12" s="6"/>
-      <c r="H12" s="5" t="s">
+      <c r="D12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="3">
+        <v>11</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="2" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="13" spans="3:8">
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="6">
-        <v>11</v>
-      </c>
-      <c r="F13" s="5">
-        <v>0</v>
-      </c>
-      <c r="G13" s="6"/>
-      <c r="H13" s="5" t="s">
+      <c r="D13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="3">
+        <v>11</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="2" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="14" spans="3:8">
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D14" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="6">
-        <v>11</v>
-      </c>
-      <c r="F14" s="5">
-        <v>0</v>
-      </c>
-      <c r="G14" s="6"/>
-      <c r="H14" s="5" t="s">
+      <c r="D14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="3">
+        <v>11</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3"/>
+      <c r="H14" s="2" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1965,22 +2173,22 @@
   <mergeCells count="1">
     <mergeCell ref="C2:H2"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C2:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="3" max="3" width="20.625" customWidth="1"/>
     <col min="4" max="4" width="10.25" customWidth="1"/>
@@ -1988,354 +2196,354 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:8">
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="3"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="6"/>
     </row>
     <row r="3" spans="3:8">
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="3:8">
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="6">
-        <v>11</v>
-      </c>
-      <c r="F4" s="5">
-        <v>0</v>
-      </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="5" t="s">
+      <c r="D4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="3">
+        <v>11</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="3:8">
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="6">
-        <v>11</v>
-      </c>
-      <c r="F5" s="6">
-        <v>0</v>
-      </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="5" t="s">
+      <c r="D5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="3">
+        <v>11</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="2" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="6" spans="3:8">
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="6">
-        <v>11</v>
-      </c>
-      <c r="F6" s="5">
-        <v>0</v>
-      </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="5" t="s">
+      <c r="D6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="3">
+        <v>11</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="2" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="7" spans="3:8">
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="6">
+      <c r="D7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="3">
         <v>60</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="5" t="s">
+      <c r="G7" s="3"/>
+      <c r="H7" s="2" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="8" spans="3:8">
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="6">
+      <c r="D8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="3">
         <v>20</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="5" t="s">
+      <c r="G8" s="3"/>
+      <c r="H8" s="2" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="9" spans="3:8">
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="6">
+      <c r="D9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="3">
         <v>15</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="5" t="s">
+      <c r="G9" s="3"/>
+      <c r="H9" s="2" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="10" spans="3:8">
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="6">
-        <v>11</v>
-      </c>
-      <c r="F10" s="5" t="s">
+      <c r="D10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="3">
+        <v>11</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="5" t="s">
+      <c r="G10" s="3"/>
+      <c r="H10" s="2" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="11" spans="3:8">
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="6">
+      <c r="D11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="3">
         <v>10</v>
       </c>
-      <c r="F11" s="5">
-        <v>0</v>
-      </c>
-      <c r="G11" s="6"/>
-      <c r="H11" s="5" t="s">
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="2" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="12" spans="3:8">
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="6">
+      <c r="D12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="3">
         <v>10</v>
       </c>
-      <c r="F12" s="5">
-        <v>0</v>
-      </c>
-      <c r="G12" s="6"/>
-      <c r="H12" s="5" t="s">
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="2" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="13" spans="3:8">
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="6">
+      <c r="D13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="3">
         <v>10</v>
       </c>
-      <c r="F13" s="5">
-        <v>0</v>
-      </c>
-      <c r="G13" s="6"/>
-      <c r="H13" s="5" t="s">
+      <c r="F13" s="2">
+        <v>0</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="2" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="14" spans="3:8">
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D14" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="6">
+      <c r="D14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="3">
         <v>256</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G14" s="6"/>
-      <c r="H14" s="5" t="s">
+      <c r="G14" s="3"/>
+      <c r="H14" s="2" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="15" spans="3:8">
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="E15" s="6"/>
-      <c r="F15" s="5" t="s">
+      <c r="E15" s="3"/>
+      <c r="F15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G15" s="6"/>
-      <c r="H15" s="5" t="s">
+      <c r="G15" s="3"/>
+      <c r="H15" s="2" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="16" spans="3:8">
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D16" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="6">
+      <c r="D16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="3">
         <v>256</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G16" s="6"/>
-      <c r="H16" s="5" t="s">
+      <c r="G16" s="3"/>
+      <c r="H16" s="2" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="17" spans="3:8">
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D17" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="6">
+      <c r="D17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="3">
         <v>256</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G17" s="6"/>
-      <c r="H17" s="5" t="s">
+      <c r="G17" s="3"/>
+      <c r="H17" s="2" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="18" spans="3:8">
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D18" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" s="6">
+      <c r="D18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="3">
         <v>256</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G18" s="6"/>
-      <c r="H18" s="5" t="s">
+      <c r="G18" s="3"/>
+      <c r="H18" s="2" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="19" spans="3:8">
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="3">
         <v>1</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F19" s="2">
         <v>1</v>
       </c>
-      <c r="G19" s="6"/>
-      <c r="H19" s="5" t="s">
+      <c r="G19" s="3"/>
+      <c r="H19" s="2" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="20" spans="3:8">
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D20" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="6">
-        <v>11</v>
-      </c>
-      <c r="F20" s="5">
-        <v>0</v>
-      </c>
-      <c r="G20" s="6"/>
-      <c r="H20" s="5" t="s">
+      <c r="D20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="3">
+        <v>11</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3"/>
+      <c r="H20" s="2" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="21" spans="3:8">
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D21" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" s="6">
-        <v>11</v>
-      </c>
-      <c r="F21" s="5">
-        <v>0</v>
-      </c>
-      <c r="G21" s="6"/>
-      <c r="H21" s="5" t="s">
+      <c r="D21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="3">
+        <v>11</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3"/>
+      <c r="H21" s="2" t="s">
         <v>116</v>
       </c>
     </row>
@@ -2343,358 +2551,358 @@
   <mergeCells count="1">
     <mergeCell ref="C2:H2"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C2:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="3" max="3" width="21.75" customWidth="1"/>
     <col min="8" max="8" width="57.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:8">
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="3"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="6"/>
     </row>
     <row r="3" spans="3:8">
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="3:8">
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="6">
-        <v>11</v>
-      </c>
-      <c r="F4" s="5">
-        <v>0</v>
-      </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="5" t="s">
+      <c r="D4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="3">
+        <v>11</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="3:8">
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="6">
-        <v>11</v>
-      </c>
-      <c r="F5" s="6">
-        <v>0</v>
-      </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="5" t="s">
+      <c r="D5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="3">
+        <v>11</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="2" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="6" spans="3:8">
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="6">
-        <v>11</v>
-      </c>
-      <c r="F6" s="5">
-        <v>0</v>
-      </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="5" t="s">
+      <c r="D6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="3">
+        <v>11</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="2" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="7" spans="3:8">
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="6">
+      <c r="D7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="3">
         <v>60</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="5" t="s">
+      <c r="G7" s="3"/>
+      <c r="H7" s="2" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="8" spans="3:8">
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="6">
+      <c r="D8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="3">
         <v>20</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="5" t="s">
+      <c r="G8" s="3"/>
+      <c r="H8" s="2" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="9" spans="3:8">
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="6">
+      <c r="D9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="3">
         <v>15</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="5" t="s">
+      <c r="G9" s="3"/>
+      <c r="H9" s="2" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="10" spans="3:8">
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="6">
-        <v>11</v>
-      </c>
-      <c r="F10" s="5" t="s">
+      <c r="D10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="3">
+        <v>11</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="5" t="s">
+      <c r="G10" s="3"/>
+      <c r="H10" s="2" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="11" spans="3:8">
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="6">
+      <c r="D11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="3">
         <v>10</v>
       </c>
-      <c r="F11" s="5">
-        <v>0</v>
-      </c>
-      <c r="G11" s="6"/>
-      <c r="H11" s="5" t="s">
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="2" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="12" spans="3:8">
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="6">
+      <c r="D12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="3">
         <v>10</v>
       </c>
-      <c r="F12" s="5">
-        <v>0</v>
-      </c>
-      <c r="G12" s="6"/>
-      <c r="H12" s="5" t="s">
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="2" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="13" spans="3:8">
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="6">
+      <c r="D13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="3">
         <v>10</v>
       </c>
-      <c r="F13" s="5">
-        <v>0</v>
-      </c>
-      <c r="G13" s="6"/>
-      <c r="H13" s="5" t="s">
+      <c r="F13" s="2">
+        <v>0</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="2" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="14" spans="3:8">
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D14" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="6">
+      <c r="D14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="3">
         <v>256</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G14" s="6"/>
-      <c r="H14" s="5" t="s">
+      <c r="G14" s="3"/>
+      <c r="H14" s="2" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="15" spans="3:8">
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G15" s="6"/>
-      <c r="H15" s="5" t="s">
+      <c r="G15" s="3"/>
+      <c r="H15" s="2" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="16" spans="3:8">
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G16" s="6"/>
-      <c r="H16" s="5" t="s">
+      <c r="G16" s="3"/>
+      <c r="H16" s="2" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="17" spans="3:8">
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="E17" s="6"/>
-      <c r="F17" s="5" t="s">
+      <c r="E17" s="3"/>
+      <c r="F17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G17" s="6"/>
-      <c r="H17" s="5" t="s">
+      <c r="G17" s="3"/>
+      <c r="H17" s="2" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="18" spans="3:8">
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="3">
         <v>1</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" s="2">
         <v>1</v>
       </c>
-      <c r="G18" s="6"/>
-      <c r="H18" s="5" t="s">
+      <c r="G18" s="3"/>
+      <c r="H18" s="2" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="19" spans="3:8">
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D19" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" s="6">
-        <v>11</v>
-      </c>
-      <c r="F19" s="5">
-        <v>0</v>
-      </c>
-      <c r="G19" s="6"/>
-      <c r="H19" s="5" t="s">
+      <c r="D19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="3">
+        <v>11</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0</v>
+      </c>
+      <c r="G19" s="3"/>
+      <c r="H19" s="2" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="20" spans="3:8">
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D20" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="6">
-        <v>11</v>
-      </c>
-      <c r="F20" s="5">
-        <v>0</v>
-      </c>
-      <c r="G20" s="6"/>
-      <c r="H20" s="5" t="s">
+      <c r="D20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="3">
+        <v>11</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3"/>
+      <c r="H20" s="2" t="s">
         <v>116</v>
       </c>
     </row>
@@ -2702,252 +2910,252 @@
   <mergeCells count="1">
     <mergeCell ref="C2:H2"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C2:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="A26" sqref="A26:A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="3" max="3" width="21.25" customWidth="1"/>
     <col min="8" max="8" width="53.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:8">
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="3"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="6"/>
     </row>
     <row r="3" spans="3:8">
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="3:8">
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="6">
-        <v>11</v>
-      </c>
-      <c r="F4" s="5">
-        <v>0</v>
-      </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="5" t="s">
+      <c r="D4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="3">
+        <v>11</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="3:8">
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="6">
-        <v>11</v>
-      </c>
-      <c r="F5" s="6">
-        <v>0</v>
-      </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="5" t="s">
+      <c r="D5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="3">
+        <v>11</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="2" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="6" spans="3:8">
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="6">
-        <v>11</v>
-      </c>
-      <c r="F6" s="5">
-        <v>0</v>
-      </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="5" t="s">
+      <c r="D6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="3">
+        <v>11</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="2" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="7" spans="3:8">
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="6">
-        <v>11</v>
-      </c>
-      <c r="F7" s="5">
-        <v>0</v>
-      </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="5" t="s">
+      <c r="D7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="3">
+        <v>11</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="2" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="8" spans="3:8">
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="6">
+      <c r="D8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="3">
         <v>20</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="5" t="s">
+      <c r="G8" s="3"/>
+      <c r="H8" s="2" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="9" spans="3:8">
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="3">
         <v>32</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="5" t="s">
+      <c r="G9" s="3"/>
+      <c r="H9" s="2" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="10" spans="3:8">
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="6">
+      <c r="D10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="3">
         <v>256</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="5" t="s">
+      <c r="G10" s="3"/>
+      <c r="H10" s="2" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="11" spans="3:8">
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="6">
+      <c r="D11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="3">
         <v>32</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="6"/>
-      <c r="H11" s="5" t="s">
+      <c r="G11" s="3"/>
+      <c r="H11" s="2" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="12" spans="3:8">
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="3">
         <v>1</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="2">
         <v>1</v>
       </c>
-      <c r="G12" s="6"/>
-      <c r="H12" s="5" t="s">
+      <c r="G12" s="3"/>
+      <c r="H12" s="2" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="13" spans="3:8">
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="6">
-        <v>11</v>
-      </c>
-      <c r="F13" s="5">
-        <v>0</v>
-      </c>
-      <c r="G13" s="6"/>
-      <c r="H13" s="5" t="s">
+      <c r="D13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="3">
+        <v>11</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="2" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="14" spans="3:8">
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D14" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="6">
-        <v>11</v>
-      </c>
-      <c r="F14" s="5">
-        <v>0</v>
-      </c>
-      <c r="G14" s="6"/>
-      <c r="H14" s="5" t="s">
+      <c r="D14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="3">
+        <v>11</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3"/>
+      <c r="H14" s="2" t="s">
         <v>116</v>
       </c>
     </row>
@@ -2955,234 +3163,234 @@
   <mergeCells count="1">
     <mergeCell ref="C2:H2"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C2:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="3" max="3" width="22" customWidth="1"/>
     <col min="8" max="8" width="52.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:8">
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="3"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="6"/>
     </row>
     <row r="3" spans="3:8">
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="3:8">
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="6">
-        <v>11</v>
-      </c>
-      <c r="F4" s="5">
-        <v>0</v>
-      </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="5" t="s">
+      <c r="D4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="3">
+        <v>11</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="3:8">
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="6">
-        <v>11</v>
-      </c>
-      <c r="F5" s="6">
-        <v>0</v>
-      </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="5" t="s">
+      <c r="D5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="3">
+        <v>11</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="2" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="6" spans="3:8">
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="6">
-        <v>11</v>
-      </c>
-      <c r="F6" s="5">
-        <v>0</v>
-      </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="5" t="s">
+      <c r="D6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="3">
+        <v>11</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="2" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="7" spans="3:8">
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="6">
-        <v>11</v>
-      </c>
-      <c r="F7" s="5">
-        <v>0</v>
-      </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="5" t="s">
+      <c r="D7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="3">
+        <v>11</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="2" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="8" spans="3:8">
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="6">
+      <c r="D8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="3">
         <v>30</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="5" t="s">
+      <c r="G8" s="3"/>
+      <c r="H8" s="2" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="9" spans="3:8">
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="6">
-        <v>11</v>
-      </c>
-      <c r="F9" s="5">
-        <v>0</v>
-      </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="5" t="s">
+      <c r="D9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="3">
+        <v>11</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="2" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="10" spans="3:8">
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="6">
-        <v>11</v>
-      </c>
-      <c r="F10" s="5">
-        <v>0</v>
-      </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="5" t="s">
+      <c r="D10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="3">
+        <v>11</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="2" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="11" spans="3:8">
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="3">
         <v>1</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="2">
         <v>1</v>
       </c>
-      <c r="G11" s="6"/>
-      <c r="H11" s="5" t="s">
+      <c r="G11" s="3"/>
+      <c r="H11" s="2" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="12" spans="3:8">
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="6">
-        <v>11</v>
-      </c>
-      <c r="F12" s="5">
-        <v>0</v>
-      </c>
-      <c r="G12" s="6"/>
-      <c r="H12" s="5" t="s">
+      <c r="D12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="3">
+        <v>11</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="2" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="13" spans="3:8">
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="6">
-        <v>11</v>
-      </c>
-      <c r="F13" s="5">
-        <v>0</v>
-      </c>
-      <c r="G13" s="6"/>
-      <c r="H13" s="5" t="s">
+      <c r="D13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="3">
+        <v>11</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="2" t="s">
         <v>116</v>
       </c>
     </row>
@@ -3190,234 +3398,572 @@
   <mergeCells count="1">
     <mergeCell ref="C2:H2"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="C2:H13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="C2:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="3" max="3" width="18.25" customWidth="1"/>
     <col min="8" max="8" width="46.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:8">
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="3"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="6"/>
     </row>
     <row r="3" spans="3:8">
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="3:8">
+      <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="3">
+        <v>11</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="3:8">
+      <c r="C5" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="3">
+        <v>11</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="3:8">
+      <c r="C6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="3">
+        <v>11</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="3:8">
+      <c r="C7" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="3">
+        <v>11</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="8" spans="3:8">
+      <c r="C8" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E8" s="3">
+        <v>60</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="9" spans="3:8">
+      <c r="C9" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E9" s="3">
+        <v>11</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10" spans="3:8">
+      <c r="C10" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E10" s="3">
+        <v>60</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="11" spans="3:8">
+      <c r="C11" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E11" s="3">
+        <v>30</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="12" spans="3:8">
+      <c r="C12" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="E12" s="3">
+        <v>10</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="13" spans="3:8">
+      <c r="C13" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="E13" s="3">
+        <v>10</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="14" spans="3:8">
+      <c r="C14" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="E14" s="3">
+        <v>10</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3"/>
+      <c r="H14" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="15" spans="3:8">
+      <c r="C15" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E15" s="3">
+        <v>10</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3"/>
+      <c r="H15" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="16" spans="3:8">
+      <c r="C16" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="E16" s="3">
+        <v>10</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0</v>
+      </c>
+      <c r="G16" s="3"/>
+      <c r="H16" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8">
+      <c r="C17" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="18" spans="3:8">
+      <c r="C18" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E18" s="3">
+        <v>11</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3"/>
+      <c r="H18" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="19" spans="3:8">
+      <c r="C19" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E19" s="3">
+        <v>11</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0</v>
+      </c>
+      <c r="G19" s="3"/>
+      <c r="H19" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="20" spans="3:8">
+      <c r="C20" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E20" s="3">
+        <v>11</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3"/>
+      <c r="H20" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="21" spans="3:8">
+      <c r="C21" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E21" s="3">
+        <v>11</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3"/>
+      <c r="H21" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="22" spans="3:8">
+      <c r="C22" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="E22" s="3">
+        <v>1</v>
+      </c>
+      <c r="F22" s="2">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3"/>
+      <c r="H22" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="23" spans="3:8">
+      <c r="C23" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="E23" s="3">
+        <v>1</v>
+      </c>
+      <c r="F23" s="2">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3"/>
+      <c r="H23" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="24" spans="3:8">
+      <c r="C24" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="E24" s="3">
         <v>4</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="3:8">
-      <c r="C4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="6">
-        <v>11</v>
-      </c>
-      <c r="F4" s="5">
-        <v>0</v>
-      </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="3:8">
-      <c r="C5" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="6">
-        <v>11</v>
-      </c>
-      <c r="F5" s="6">
-        <v>0</v>
-      </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="3:8">
-      <c r="C6" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="6">
-        <v>11</v>
-      </c>
-      <c r="F6" s="5">
-        <v>0</v>
-      </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="7" spans="3:8">
-      <c r="C7" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="6">
-        <v>11</v>
-      </c>
-      <c r="F7" s="5">
-        <v>0</v>
-      </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="5" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="8" spans="3:8">
-      <c r="C8" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="6">
-        <v>30</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="5" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="9" spans="3:8">
-      <c r="C9" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="6">
-        <v>11</v>
-      </c>
-      <c r="F9" s="5">
-        <v>0</v>
-      </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="10" spans="3:8">
-      <c r="C10" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="6">
-        <v>11</v>
-      </c>
-      <c r="F10" s="5">
-        <v>0</v>
-      </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="11" spans="3:8">
-      <c r="C11" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D11" s="6" t="s">
+      <c r="F24" s="2">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3"/>
+      <c r="H24" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="25" spans="3:8">
+      <c r="C25" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E25" s="3">
+        <v>20</v>
+      </c>
+      <c r="F25" s="2">
+        <v>0</v>
+      </c>
+      <c r="G25" s="3"/>
+      <c r="H25" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="26" spans="3:8">
+      <c r="C26" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="E26" s="3">
+        <v>1</v>
+      </c>
+      <c r="F26" s="2">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3"/>
+      <c r="H26" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="27" spans="3:8">
+      <c r="C27" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="E27" s="3">
+        <v>1</v>
+      </c>
+      <c r="F27" s="2">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3"/>
+      <c r="H27" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="28" spans="3:8">
+      <c r="C28" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="E28" s="3">
+        <v>10</v>
+      </c>
+      <c r="F28" s="2">
+        <v>0</v>
+      </c>
+      <c r="G28" s="3"/>
+      <c r="H28" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="29" spans="3:8">
+      <c r="C29" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="E29" s="3">
+        <v>1</v>
+      </c>
+      <c r="F29" s="2">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3"/>
+      <c r="H29" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="30" spans="3:8">
+      <c r="C30" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D30" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E30" s="3">
         <v>1</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F30" s="2">
         <v>1</v>
       </c>
-      <c r="G11" s="6"/>
-      <c r="H11" s="5" t="s">
+      <c r="G30" s="3"/>
+      <c r="H30" s="2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="12" spans="3:8">
-      <c r="C12" s="5" t="s">
+    <row r="31" spans="3:8">
+      <c r="C31" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="6">
-        <v>11</v>
-      </c>
-      <c r="F12" s="5">
-        <v>0</v>
-      </c>
-      <c r="G12" s="6"/>
-      <c r="H12" s="5" t="s">
+      <c r="D31" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" s="3">
+        <v>11</v>
+      </c>
+      <c r="F31" s="2">
+        <v>0</v>
+      </c>
+      <c r="G31" s="3"/>
+      <c r="H31" s="2" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="13" spans="3:8">
-      <c r="C13" s="5" t="s">
+    <row r="32" spans="3:8">
+      <c r="C32" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="6">
-        <v>11</v>
-      </c>
-      <c r="F13" s="5">
-        <v>0</v>
-      </c>
-      <c r="G13" s="6"/>
-      <c r="H13" s="5" t="s">
+      <c r="D32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="3">
+        <v>11</v>
+      </c>
+      <c r="F32" s="2">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3"/>
+      <c r="H32" s="2" t="s">
         <v>116</v>
       </c>
     </row>
@@ -3425,42 +3971,205 @@
   <mergeCells count="1">
     <mergeCell ref="C2:H2"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="C2:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
-  <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <cols>
+    <col min="3" max="3" width="15.625" customWidth="1"/>
+    <col min="8" max="8" width="54.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:8">
+      <c r="C2" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="6"/>
+    </row>
+    <row r="3" spans="3:8">
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="3:8">
+      <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="3">
+        <v>11</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="3:8">
+      <c r="C5" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="3">
+        <v>11</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="3:8">
+      <c r="C6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="3">
+        <v>11</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="3:8">
+      <c r="C7" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="3">
+        <v>11</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="8" spans="3:8">
+      <c r="C8" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E8" s="3">
+        <v>60</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="9" spans="3:8">
+      <c r="C9" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E9" s="3">
+        <v>11</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10" spans="3:8">
+      <c r="C10" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E10" s="3">
+        <v>60</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C2:H2"/>
+  </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter alignWithMargins="0"/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Document/表设计.xlsx
+++ b/Document/表设计.xlsx
@@ -4,13 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7860" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7860" firstSheet="4" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="微信公众平台" sheetId="1" r:id="rId1"/>
     <sheet name="充值流水" sheetId="2" r:id="rId2"/>
     <sheet name="region" sheetId="14" r:id="rId3"/>
     <sheet name="用户地址" sheetId="15" r:id="rId4"/>
+    <sheet name="微信用户列表" sheetId="16" r:id="rId5"/>
+    <sheet name="微信用户分组" sheetId="19" r:id="rId6"/>
+    <sheet name="微信用户发送的消息" sheetId="17" r:id="rId7"/>
+    <sheet name="发送消息" sheetId="18" r:id="rId8"/>
+    <sheet name="公众平台菜单" sheetId="20" r:id="rId9"/>
+    <sheet name="微信卡卷" sheetId="21" r:id="rId10"/>
   </sheets>
   <calcPr calcId="125725"/>
   <extLst/>
@@ -18,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="212">
   <si>
     <r>
       <rPr>
@@ -278,12 +284,6 @@
       </rPr>
       <t>)</t>
     </r>
-  </si>
-  <si>
-    <t>mp_id</t>
-  </si>
-  <si>
-    <t>微信公众平台id(对应micro_platform.id)</t>
   </si>
   <si>
     <t>关联用户表member的主键id(充值用户)</t>
@@ -623,12 +623,384 @@
     <t>创建时间</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>微信用户列表(member_weixin</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="9"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>nickname</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信用户昵称</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_name</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>wx_openid</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>空字符串</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信用户openid</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_subscribe</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否关注用户</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>subscribe_time</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>关注时间</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>unsubscribe_time</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消关注时间</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态1可用0不可用</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>微信用户发送的消息(weixin_message</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="9"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>) 只记录文字及语音转换为文字的消息</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>wx_openid</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>msg_type</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息类型:text voice</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>content</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息内容</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_time</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息创建时间</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新时间</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有微应用</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有微应用(暂时不启用耗资源)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>向微信用户发送消息(send_message)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>group_id</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>smallint</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信用户所在分组(微信分组)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>mp_id</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>mp_id</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信公众平台id(对应micro_platform.id)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>mp_id</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信公众平台id(对应micro_platform.id)唯一</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>mp_id</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_to_all</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否发送给所有微信用户1是0否</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送(群发)消息简单描述</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送消息状态0已发送1发送成功-1失败</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>send_time</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息发送时间</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>total_count</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送数量</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>filter_count</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>过滤后发送的粉丝数(sent_count+error_count)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>sent_count</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>error_count</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送成功粉丝数</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送失败的粉丝数</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>只做公众平台发送完消息统计</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不保存公众平台发送消息具体内容</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>微信用户分组(member_weixin_group</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="9"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>group_name</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信用户分组名</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信用户分组id</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信用户分组创建时间</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信用户分组更新时间</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信公众平台菜单(weixin_menu)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>menu_type</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单类型：click  view pic_photo_or_album等</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>menu_name</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单名称(中文最多7个字)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>menu_key</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单key值</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>menu_url</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单url(仅view类型需要)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>pid</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>父菜单id</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建时间</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>order</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单顺序1-5</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_order</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>父菜单顺序1-3</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单状态1启用0禁用</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -704,6 +1076,13 @@
       <color theme="1"/>
       <name val="Tahoma"/>
       <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -818,7 +1197,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -827,6 +1206,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -838,23 +1226,29 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1201,7 +1595,7 @@
   <dimension ref="A2:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B5"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1212,20 +1606,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8">
-      <c r="C2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="6"/>
+      <c r="C2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="9"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="B3" s="7"/>
+      <c r="A3" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" s="11"/>
       <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1246,8 +1640,8 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="8"/>
-      <c r="B4" s="7"/>
+      <c r="A4" s="12"/>
+      <c r="B4" s="11"/>
       <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
@@ -1266,8 +1660,8 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="8"/>
-      <c r="B5" s="7"/>
+      <c r="A5" s="12"/>
+      <c r="B5" s="11"/>
       <c r="C5" s="2" t="s">
         <v>10</v>
       </c>
@@ -1779,12 +2173,27 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1795,14 +2204,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8">
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="6"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="9"/>
     </row>
     <row r="3" spans="1:8">
       <c r="C3" s="1" t="s">
@@ -1825,10 +2234,10 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="B4" s="7"/>
+      <c r="A4" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B4" s="11"/>
       <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
@@ -1847,10 +2256,10 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="8"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="2" t="s">
-        <v>74</v>
+      <c r="A5" s="12"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="5" t="s">
+        <v>166</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>8</v>
@@ -1862,8 +2271,8 @@
         <v>0</v>
       </c>
       <c r="G5" s="3"/>
-      <c r="H5" s="2" t="s">
-        <v>75</v>
+      <c r="H5" s="5" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1881,12 +2290,12 @@
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="C7" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>63</v>
@@ -1899,12 +2308,12 @@
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="C8" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>11</v>
@@ -1917,12 +2326,12 @@
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="C9" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>56</v>
@@ -1935,7 +2344,7 @@
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1953,12 +2362,12 @@
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="C11" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>63</v>
@@ -1971,7 +2380,7 @@
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1989,7 +2398,7 @@
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2007,7 +2416,7 @@
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2025,7 +2434,7 @@
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -2045,7 +2454,7 @@
   <dimension ref="A2:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2055,14 +2464,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8">
-      <c r="C2" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="6"/>
+      <c r="C2" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="9"/>
     </row>
     <row r="3" spans="1:8">
       <c r="C3" s="1" t="s">
@@ -2085,12 +2494,12 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="B4" s="7"/>
+      <c r="A4" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4" s="11"/>
       <c r="C4" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>8</v>
@@ -2103,55 +2512,55 @@
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="8"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>102</v>
+      <c r="A5" s="12"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>100</v>
       </c>
       <c r="E5" s="3">
         <v>20</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="12"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="11" t="s">
+      <c r="D6" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E6" s="3">
+        <v>11</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="5" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="8"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="11" t="s">
+    <row r="7" spans="1:8">
+      <c r="C7" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D7" s="6" t="s">
         <v>92</v>
-      </c>
-      <c r="E6" s="3">
-        <v>11</v>
-      </c>
-      <c r="F6" s="2">
-        <v>0</v>
-      </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="11" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="C7" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>94</v>
       </c>
       <c r="E7" s="3">
         <v>1000</v>
@@ -2160,16 +2569,16 @@
         <v>0</v>
       </c>
       <c r="G7" s="3"/>
-      <c r="H7" s="11" t="s">
-        <v>110</v>
+      <c r="H7" s="5" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="C8" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>94</v>
+      <c r="C8" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>92</v>
       </c>
       <c r="E8" s="3">
         <v>1000</v>
@@ -2178,16 +2587,16 @@
         <v>0</v>
       </c>
       <c r="G8" s="3"/>
-      <c r="H8" s="11" t="s">
+      <c r="H8" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="C9" s="5" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="C9" s="11" t="s">
-        <v>111</v>
-      </c>
       <c r="D9" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E9" s="3">
         <v>1</v>
@@ -2196,8 +2605,8 @@
         <v>1</v>
       </c>
       <c r="G9" s="3"/>
-      <c r="H9" s="11" t="s">
-        <v>112</v>
+      <c r="H9" s="5" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -2214,8 +2623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2225,14 +2634,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8">
-      <c r="C2" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="6"/>
+      <c r="C2" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="9"/>
     </row>
     <row r="3" spans="1:8">
       <c r="C3" s="1" t="s">
@@ -2255,12 +2664,12 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="B4" s="7"/>
+      <c r="A4" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4" s="11"/>
       <c r="C4" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>8</v>
@@ -2273,37 +2682,37 @@
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="12"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="5" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="8"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E5" s="3">
+        <v>11</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="12"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>92</v>
-      </c>
-      <c r="E5" s="3">
-        <v>11</v>
-      </c>
-      <c r="F5" s="11">
-        <v>0</v>
-      </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="11" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="8"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>94</v>
       </c>
       <c r="E6" s="3">
         <v>20</v>
@@ -2312,34 +2721,34 @@
         <v>0</v>
       </c>
       <c r="G6" s="3"/>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="C7" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="C7" s="11" t="s">
+      <c r="E7" s="3">
+        <v>11</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="D7" s="12" t="s">
+    </row>
+    <row r="8" spans="1:8">
+      <c r="C8" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="E7" s="3">
-        <v>11</v>
-      </c>
-      <c r="F7" s="2">
-        <v>0</v>
-      </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="11" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="C8" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>94</v>
+      <c r="D8" s="6" t="s">
+        <v>92</v>
       </c>
       <c r="E8" s="3">
         <v>15</v>
@@ -2348,70 +2757,70 @@
         <v>0</v>
       </c>
       <c r="G8" s="3"/>
-      <c r="H8" s="11" t="s">
+      <c r="H8" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="C9" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="C9" s="11" t="s">
+      <c r="E9" s="3">
+        <v>11</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="D9" s="12" t="s">
+    </row>
+    <row r="10" spans="1:8">
+      <c r="C10" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="E9" s="3">
-        <v>11</v>
-      </c>
-      <c r="F9" s="2">
-        <v>0</v>
-      </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="11" t="s">
+      <c r="D10" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E10" s="3">
+        <v>11</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="5" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
-      <c r="C10" s="11" t="s">
+    <row r="11" spans="1:8">
+      <c r="C11" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="D10" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="E10" s="3">
-        <v>11</v>
-      </c>
-      <c r="F10" s="2">
-        <v>0</v>
-      </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="11" t="s">
+      <c r="D11" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E11" s="3">
+        <v>11</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="5" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
-      <c r="C11" s="11" t="s">
+    <row r="12" spans="1:8">
+      <c r="C12" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="D11" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="E11" s="3">
-        <v>11</v>
-      </c>
-      <c r="F11" s="2">
-        <v>0</v>
-      </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="11" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="C12" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>94</v>
+      <c r="D12" s="6" t="s">
+        <v>92</v>
       </c>
       <c r="E12" s="3">
         <v>256</v>
@@ -2420,16 +2829,16 @@
         <v>0</v>
       </c>
       <c r="G12" s="3"/>
-      <c r="H12" s="11" t="s">
+      <c r="H12" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="C13" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>130</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="C13" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>132</v>
       </c>
       <c r="E13" s="3">
         <v>1</v>
@@ -2438,16 +2847,16 @@
         <v>0</v>
       </c>
       <c r="G13" s="3"/>
-      <c r="H13" s="11" t="s">
-        <v>133</v>
+      <c r="H13" s="5" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="C14" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>132</v>
+      <c r="C14" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>130</v>
       </c>
       <c r="E14" s="3">
         <v>1</v>
@@ -2456,16 +2865,16 @@
         <v>0</v>
       </c>
       <c r="G14" s="3"/>
-      <c r="H14" s="11" t="s">
-        <v>134</v>
+      <c r="H14" s="5" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="C15" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>123</v>
+      <c r="C15" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>121</v>
       </c>
       <c r="E15" s="3">
         <v>11</v>
@@ -2474,16 +2883,16 @@
         <v>1</v>
       </c>
       <c r="G15" s="3"/>
-      <c r="H15" s="11" t="s">
-        <v>136</v>
+      <c r="H15" s="5" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="C16" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>92</v>
+      <c r="C16" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>90</v>
       </c>
       <c r="E16" s="3">
         <v>11</v>
@@ -2492,8 +2901,1336 @@
         <v>1</v>
       </c>
       <c r="G16" s="3"/>
-      <c r="H16" s="11" t="s">
-        <v>97</v>
+      <c r="H16" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="A4:B6"/>
+  </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="3" max="3" width="18.375" customWidth="1"/>
+    <col min="8" max="8" width="64" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:8">
+      <c r="C2" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="9"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B4" s="11"/>
+      <c r="C4" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="3">
+        <v>11</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="12"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E5" s="3">
+        <v>11</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="12"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E6" s="3">
+        <v>20</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="4"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E7" s="3">
+        <v>11</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="4"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E8" s="3">
+        <v>128</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="C9" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E9" s="3">
+        <v>60</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="C10" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="E10" s="3">
+        <v>6</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="C11" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="C12" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E12" s="3">
+        <v>11</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="C13" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E13" s="3">
+        <v>11</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="C14" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3"/>
+      <c r="H14" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="C15" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E15" s="3">
+        <v>11</v>
+      </c>
+      <c r="F15" s="2">
+        <v>1</v>
+      </c>
+      <c r="G15" s="3"/>
+      <c r="H15" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="C16" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E16" s="3">
+        <v>11</v>
+      </c>
+      <c r="F16" s="2">
+        <v>1</v>
+      </c>
+      <c r="G16" s="3"/>
+      <c r="H16" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="A4:B6"/>
+  </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="8" max="8" width="63" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:8">
+      <c r="C2" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="9"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B4" s="11"/>
+      <c r="C4" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="3">
+        <v>11</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="12"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E5" s="3">
+        <v>11</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="12"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E6" s="3">
+        <v>11</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="5" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="4"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E7" s="3">
+        <v>11</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="5" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="4"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E8" s="3">
+        <v>11</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="C9" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E9" s="3">
+        <v>11</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="5" t="s">
+        <v>194</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="A4:B6"/>
+  </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="2" width="13.5" customWidth="1"/>
+    <col min="3" max="3" width="17.125" customWidth="1"/>
+    <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="8" max="8" width="64.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:8">
+      <c r="C2" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="9"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="B4" s="11"/>
+      <c r="C4" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="3">
+        <v>11</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="12"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E5" s="3">
+        <v>11</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="12"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E6" s="3">
+        <v>128</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="4"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E7" s="3">
+        <v>11</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="B8" s="14"/>
+      <c r="C8" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E8" s="3">
+        <v>60</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="4"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E9" s="3">
+        <v>20</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="4"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="4"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E11" s="3">
+        <v>11</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="C12" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E12" s="3">
+        <v>11</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="A4:B6"/>
+  </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:H20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:H15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="3" max="3" width="21.875" customWidth="1"/>
+    <col min="8" max="8" width="64.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:8">
+      <c r="C2" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="9"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="B4" s="11"/>
+      <c r="C4" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="3">
+        <v>11</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="12"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E5" s="3">
+        <v>11</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="12"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+      <c r="F6" s="5">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="4"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E7" s="3">
+        <v>128</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="4"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E8" s="3">
+        <v>20</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="4"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="4"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E10" s="3">
+        <v>11</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="4"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E11" s="3">
+        <v>11</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="4"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E12" s="3">
+        <v>11</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="5" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="4"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E13" s="3">
+        <v>11</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="5" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="4"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E14" s="3">
+        <v>11</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3"/>
+      <c r="H14" s="5" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="C15" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E15" s="3">
+        <v>11</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3"/>
+      <c r="H15" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7">
+      <c r="C17" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+    </row>
+    <row r="18" spans="3:7">
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+    </row>
+    <row r="19" spans="3:7">
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+    </row>
+    <row r="20" spans="3:7">
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="A4:B6"/>
+    <mergeCell ref="C17:G20"/>
+  </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="8" max="8" width="63.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:8">
+      <c r="C2" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="9"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="B4" s="11"/>
+      <c r="C4" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="3">
+        <v>11</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="12"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E5" s="3">
+        <v>11</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="12"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E6" s="3">
+        <v>128</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="4"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E7" s="3">
+        <v>60</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="5" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="4"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E8" s="3">
+        <v>32</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="4"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E9" s="3">
+        <v>256</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="4"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E10" s="3">
+        <v>11</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="5" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="4"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E11" s="3">
+        <v>2</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="5" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="4"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E12" s="3">
+        <v>2</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="5" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="4"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="4"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E14" s="3">
+        <v>11</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3"/>
+      <c r="H14" s="5" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="C15" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E15" s="3">
+        <v>11</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3"/>
+      <c r="H15" s="5" t="s">
+        <v>158</v>
       </c>
     </row>
   </sheetData>

--- a/Document/表设计.xlsx
+++ b/Document/表设计.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7860" firstSheet="4" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19230" windowHeight="7500"/>
   </bookViews>
   <sheets>
-    <sheet name="微信公众平台" sheetId="1" r:id="rId1"/>
-    <sheet name="充值流水" sheetId="2" r:id="rId2"/>
-    <sheet name="region" sheetId="14" r:id="rId3"/>
-    <sheet name="用户地址" sheetId="15" r:id="rId4"/>
-    <sheet name="微信用户列表" sheetId="16" r:id="rId5"/>
-    <sheet name="微信用户分组" sheetId="19" r:id="rId6"/>
-    <sheet name="微信用户发送的消息" sheetId="17" r:id="rId7"/>
-    <sheet name="发送消息" sheetId="18" r:id="rId8"/>
-    <sheet name="公众平台菜单" sheetId="20" r:id="rId9"/>
-    <sheet name="微信卡卷" sheetId="21" r:id="rId10"/>
+    <sheet name="用户详细信息" sheetId="22" r:id="rId1"/>
+    <sheet name="微信公众平台" sheetId="1" r:id="rId2"/>
+    <sheet name="充值流水" sheetId="2" r:id="rId3"/>
+    <sheet name="region" sheetId="14" r:id="rId4"/>
+    <sheet name="用户地址" sheetId="15" r:id="rId5"/>
+    <sheet name="微信用户列表" sheetId="16" r:id="rId6"/>
+    <sheet name="微信用户分组" sheetId="19" r:id="rId7"/>
+    <sheet name="微信用户发送的消息" sheetId="17" r:id="rId8"/>
+    <sheet name="发送消息" sheetId="18" r:id="rId9"/>
+    <sheet name="公众平台菜单" sheetId="20" r:id="rId10"/>
+    <sheet name="微信卡卷" sheetId="21" r:id="rId11"/>
   </sheets>
   <calcPr calcId="125725"/>
   <extLst/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="229">
   <si>
     <r>
       <rPr>
@@ -533,10 +534,6 @@
   </si>
   <si>
     <t>用户id关联member表id</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_name</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -993,6 +990,90 @@
   </si>
   <si>
     <t>菜单状态1启用0禁用</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>用户详细信息(member_info</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="9"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>real_name</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型0试用1正式使用</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>start_time</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始时间</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>end_time</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束时间</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态1通过0未通过</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>app_type</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用类型1餐饮2商城</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>mp_img</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>空字符串</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信公众平台形象图片</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>introduce</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>简单介绍</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1217,6 +1298,12 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1238,16 +1325,10 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1592,10 +1673,597 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:H32"/>
+  <dimension ref="A2:H15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="3" max="3" width="16.25" customWidth="1"/>
+    <col min="8" max="8" width="48" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:8">
+      <c r="C2" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="11"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="3">
+        <v>11</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="14"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E5" s="3">
+        <v>11</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="14"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E6" s="3">
+        <v>20</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="C7" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E7" s="3">
+        <v>11</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="C8" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="5" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="C9" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="5" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="C10" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E10" s="3">
+        <v>255</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="5" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="C11" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="C12" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E12" s="3">
+        <v>11</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="5" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="C13" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E13" s="3">
+        <v>11</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="5" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="C14" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E14" s="3">
+        <v>11</v>
+      </c>
+      <c r="F14" s="2">
+        <v>1</v>
+      </c>
+      <c r="G14" s="3"/>
+      <c r="H14" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="C15" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E15" s="3">
+        <v>11</v>
+      </c>
+      <c r="F15" s="2">
+        <v>1</v>
+      </c>
+      <c r="G15" s="3"/>
+      <c r="H15" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="A4:B6"/>
+  </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="H26" sqref="H26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="8" max="8" width="63.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:8">
+      <c r="C2" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="11"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="3">
+        <v>11</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="14"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E5" s="3">
+        <v>11</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="14"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E6" s="3">
+        <v>128</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="4"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E7" s="3">
+        <v>60</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="4"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E8" s="3">
+        <v>32</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="5" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="4"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E9" s="3">
+        <v>256</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="4"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E10" s="3">
+        <v>11</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="4"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E11" s="3">
+        <v>2</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="5" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="4"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E12" s="3">
+        <v>2</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="5" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="4"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="5" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="4"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E14" s="3">
+        <v>11</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3"/>
+      <c r="H14" s="5" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="C15" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E15" s="3">
+        <v>11</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3"/>
+      <c r="H15" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="A4:B6"/>
+  </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:H33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1606,20 +2274,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8">
-      <c r="C2" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="9"/>
+      <c r="C2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="11"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="B3" s="11"/>
+      <c r="B3" s="13"/>
       <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1640,8 +2308,8 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="12"/>
-      <c r="B4" s="11"/>
+      <c r="A4" s="14"/>
+      <c r="B4" s="13"/>
       <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
@@ -1660,8 +2328,8 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="12"/>
-      <c r="B5" s="11"/>
+      <c r="A5" s="14"/>
+      <c r="B5" s="13"/>
       <c r="C5" s="2" t="s">
         <v>10</v>
       </c>
@@ -1879,61 +2547,61 @@
     </row>
     <row r="17" spans="3:8">
       <c r="C17" s="2" t="s">
-        <v>39</v>
+        <v>223</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>29</v>
+        <v>224</v>
       </c>
       <c r="E17" s="3">
-        <v>1</v>
-      </c>
-      <c r="F17" s="2">
-        <v>0</v>
+        <v>256</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="G17" s="3"/>
       <c r="H17" s="2" t="s">
-        <v>40</v>
+        <v>226</v>
       </c>
     </row>
     <row r="18" spans="3:8">
       <c r="C18" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="E18" s="3">
-        <v>512</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>15</v>
+        <v>1</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0</v>
       </c>
       <c r="G18" s="3"/>
       <c r="H18" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="3:8">
       <c r="C19" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E19" s="3">
-        <v>11</v>
-      </c>
-      <c r="F19" s="2">
-        <v>0</v>
+        <v>512</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="G19" s="3"/>
       <c r="H19" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="3:8">
       <c r="C20" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>8</v>
@@ -1946,66 +2614,66 @@
       </c>
       <c r="G20" s="3"/>
       <c r="H20" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="3:8">
       <c r="C21" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E21" s="3">
-        <v>255</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0</v>
       </c>
       <c r="G21" s="3"/>
       <c r="H21" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="3:8">
       <c r="C22" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E22" s="3">
-        <v>11</v>
-      </c>
-      <c r="F22" s="2">
-        <v>0</v>
+        <v>255</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="3:8">
       <c r="C23" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="E23" s="3">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F23" s="2">
         <v>0</v>
       </c>
       <c r="G23" s="3"/>
       <c r="H23" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="3:8">
       <c r="C24" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>29</v>
@@ -2018,98 +2686,98 @@
       </c>
       <c r="G24" s="3"/>
       <c r="H24" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="3:8">
       <c r="C25" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E25" s="3"/>
-      <c r="F25" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="E25" s="3">
+        <v>1</v>
+      </c>
+      <c r="F25" s="2">
+        <v>0</v>
+      </c>
       <c r="G25" s="3"/>
       <c r="H25" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="3:8">
       <c r="C26" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E26" s="3">
-        <v>4</v>
-      </c>
-      <c r="F26" s="2">
-        <v>1</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="E26" s="3"/>
+      <c r="F26" s="2"/>
       <c r="G26" s="3"/>
       <c r="H26" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="3:8">
       <c r="C27" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>29</v>
       </c>
       <c r="E27" s="3">
+        <v>4</v>
+      </c>
+      <c r="F27" s="2">
         <v>1</v>
-      </c>
-      <c r="F27" s="2">
-        <v>0</v>
       </c>
       <c r="G27" s="3"/>
       <c r="H27" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="3:8">
       <c r="C28" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="E28" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F28" s="2">
         <v>0</v>
       </c>
       <c r="G28" s="3"/>
       <c r="H28" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="3:8">
       <c r="C29" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="E29" s="3">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F29" s="2">
         <v>0</v>
       </c>
       <c r="G29" s="3"/>
       <c r="H29" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="3:8">
       <c r="C30" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>8</v>
@@ -2122,12 +2790,12 @@
       </c>
       <c r="G30" s="3"/>
       <c r="H30" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" spans="3:8">
       <c r="C31" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>8</v>
@@ -2140,12 +2808,12 @@
       </c>
       <c r="G31" s="3"/>
       <c r="H31" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="3:8">
       <c r="C32" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>8</v>
@@ -2158,6 +2826,24 @@
       </c>
       <c r="G32" s="3"/>
       <c r="H32" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="3:8">
+      <c r="C33" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="3">
+        <v>11</v>
+      </c>
+      <c r="F33" s="2">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3"/>
+      <c r="H33" s="2" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2173,22 +2859,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData/>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:H14"/>
   <sheetViews>
@@ -2204,14 +2875,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8">
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="9"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="11"/>
     </row>
     <row r="3" spans="1:8">
       <c r="C3" s="1" t="s">
@@ -2234,10 +2905,10 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="B4" s="11"/>
+      <c r="B4" s="13"/>
       <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
@@ -2256,10 +2927,10 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="12"/>
-      <c r="B5" s="11"/>
+      <c r="A5" s="14"/>
+      <c r="B5" s="13"/>
       <c r="C5" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>8</v>
@@ -2272,7 +2943,7 @@
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2449,7 +3120,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:H9"/>
   <sheetViews>
@@ -2464,14 +3135,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8">
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="9"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="11"/>
     </row>
     <row r="3" spans="1:8">
       <c r="C3" s="1" t="s">
@@ -2494,10 +3165,10 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="B4" s="11"/>
+      <c r="B4" s="13"/>
       <c r="C4" s="2" t="s">
         <v>88</v>
       </c>
@@ -2516,8 +3187,8 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="12"/>
-      <c r="B5" s="11"/>
+      <c r="A5" s="14"/>
+      <c r="B5" s="13"/>
       <c r="C5" s="5" t="s">
         <v>99</v>
       </c>
@@ -2536,8 +3207,8 @@
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="12"/>
-      <c r="B6" s="11"/>
+      <c r="A6" s="14"/>
+      <c r="B6" s="13"/>
       <c r="C6" s="5" t="s">
         <v>103</v>
       </c>
@@ -2607,302 +3278,6 @@
       <c r="G9" s="3"/>
       <c r="H9" s="5" t="s">
         <v>110</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="A4:B6"/>
-  </mergeCells>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:H16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="3" max="3" width="15.375" customWidth="1"/>
-    <col min="8" max="8" width="45.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:8">
-      <c r="C2" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="9"/>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="C3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="3">
-        <v>11</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0</v>
-      </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="12"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="E5" s="3">
-        <v>11</v>
-      </c>
-      <c r="F5" s="5">
-        <v>0</v>
-      </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="5" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="12"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="E6" s="3">
-        <v>20</v>
-      </c>
-      <c r="F6" s="2">
-        <v>0</v>
-      </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="5" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="C7" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="E7" s="3">
-        <v>11</v>
-      </c>
-      <c r="F7" s="2">
-        <v>0</v>
-      </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="C8" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="E8" s="3">
-        <v>15</v>
-      </c>
-      <c r="F8" s="2">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="5" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="C9" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="E9" s="3">
-        <v>11</v>
-      </c>
-      <c r="F9" s="2">
-        <v>0</v>
-      </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="C10" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="E10" s="3">
-        <v>11</v>
-      </c>
-      <c r="F10" s="2">
-        <v>0</v>
-      </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="5" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="C11" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="E11" s="3">
-        <v>11</v>
-      </c>
-      <c r="F11" s="2">
-        <v>0</v>
-      </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="5" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="C12" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="E12" s="3">
-        <v>256</v>
-      </c>
-      <c r="F12" s="2">
-        <v>0</v>
-      </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="C13" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E13" s="3">
-        <v>1</v>
-      </c>
-      <c r="F13" s="2">
-        <v>0</v>
-      </c>
-      <c r="G13" s="3"/>
-      <c r="H13" s="5" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="C14" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E14" s="3">
-        <v>1</v>
-      </c>
-      <c r="F14" s="2">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3"/>
-      <c r="H14" s="5" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="C15" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="E15" s="3">
-        <v>11</v>
-      </c>
-      <c r="F15" s="2">
-        <v>1</v>
-      </c>
-      <c r="G15" s="3"/>
-      <c r="H15" s="5" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="C16" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="E16" s="3">
-        <v>11</v>
-      </c>
-      <c r="F16" s="2">
-        <v>1</v>
-      </c>
-      <c r="G16" s="3"/>
-      <c r="H16" s="5" t="s">
-        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -2920,24 +3295,24 @@
   <dimension ref="A2:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:H9"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="3" max="3" width="18.375" customWidth="1"/>
-    <col min="8" max="8" width="64" customWidth="1"/>
+    <col min="3" max="3" width="15.375" customWidth="1"/>
+    <col min="8" max="8" width="45.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:8">
-      <c r="C2" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="9"/>
+      <c r="C2" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="11"/>
     </row>
     <row r="3" spans="1:8">
       <c r="C3" s="1" t="s">
@@ -2960,10 +3335,10 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="B4" s="11"/>
+      <c r="A4" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4" s="13"/>
       <c r="C4" s="2" t="s">
         <v>88</v>
       </c>
@@ -2982,8 +3357,8 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="12"/>
-      <c r="B5" s="11"/>
+      <c r="A5" s="14"/>
+      <c r="B5" s="13"/>
       <c r="C5" s="5" t="s">
         <v>91</v>
       </c>
@@ -3002,10 +3377,10 @@
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="12"/>
-      <c r="B6" s="11"/>
+      <c r="A6" s="14"/>
+      <c r="B6" s="13"/>
       <c r="C6" s="5" t="s">
-        <v>138</v>
+        <v>212</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>92</v>
@@ -3013,22 +3388,20 @@
       <c r="E6" s="3">
         <v>20</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>140</v>
+      <c r="F6" s="2">
+        <v>0</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="C7" s="5" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="4"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="5" t="s">
-        <v>167</v>
-      </c>
       <c r="D7" s="6" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="E7" s="3">
         <v>11</v>
@@ -3038,117 +3411,115 @@
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="5" t="s">
-        <v>170</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="4"/>
-      <c r="B8" s="14"/>
       <c r="C8" s="5" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>92</v>
       </c>
       <c r="E8" s="3">
-        <v>128</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>140</v>
+        <v>15</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="5" t="s">
-        <v>141</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="C9" s="5" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>92</v>
+        <v>120</v>
       </c>
       <c r="E9" s="3">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="F9" s="2">
         <v>0</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="5" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="C10" s="5" t="s">
-        <v>163</v>
+        <v>122</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>164</v>
+        <v>120</v>
       </c>
       <c r="E10" s="3">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F10" s="2">
         <v>0</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="5" t="s">
-        <v>165</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="C11" s="5" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="E11" s="3">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F11" s="2">
         <v>0</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="5" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="C12" s="5" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>121</v>
+        <v>92</v>
       </c>
       <c r="E12" s="3">
-        <v>11</v>
+        <v>256</v>
       </c>
       <c r="F12" s="2">
         <v>0</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="5" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="C13" s="5" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="E13" s="3">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F13" s="2">
         <v>0</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="5" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -3156,7 +3527,7 @@
         <v>87</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E14" s="3">
         <v>1</v>
@@ -3166,15 +3537,15 @@
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="5" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="C15" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E15" s="3">
         <v>11</v>
@@ -3184,7 +3555,7 @@
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -3216,6 +3587,306 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="3" max="3" width="18.375" customWidth="1"/>
+    <col min="8" max="8" width="64" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:8">
+      <c r="C2" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="11"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="3">
+        <v>11</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="14"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E5" s="3">
+        <v>11</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="14"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E6" s="3">
+        <v>20</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="4"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E7" s="3">
+        <v>11</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="4"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E8" s="3">
+        <v>128</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="C9" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E9" s="3">
+        <v>60</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="C10" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="E10" s="3">
+        <v>6</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="C11" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="C12" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="E12" s="3">
+        <v>11</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="C13" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="E13" s="3">
+        <v>11</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="C14" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3"/>
+      <c r="H14" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="C15" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="E15" s="3">
+        <v>11</v>
+      </c>
+      <c r="F15" s="2">
+        <v>1</v>
+      </c>
+      <c r="G15" s="3"/>
+      <c r="H15" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="C16" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E16" s="3">
+        <v>11</v>
+      </c>
+      <c r="F16" s="2">
+        <v>1</v>
+      </c>
+      <c r="G16" s="3"/>
+      <c r="H16" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="A4:B6"/>
+  </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:H9"/>
   <sheetViews>
@@ -3230,14 +3901,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8">
-      <c r="C2" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="9"/>
+      <c r="C2" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="11"/>
     </row>
     <row r="3" spans="1:8">
       <c r="C3" s="1" t="s">
@@ -3260,10 +3931,10 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="B4" s="11"/>
+      <c r="B4" s="13"/>
       <c r="C4" s="2" t="s">
         <v>88</v>
       </c>
@@ -3282,10 +3953,10 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="12"/>
-      <c r="B5" s="11"/>
+      <c r="A5" s="14"/>
+      <c r="B5" s="13"/>
       <c r="C5" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>90</v>
@@ -3298,14 +3969,14 @@
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="12"/>
-      <c r="B6" s="11"/>
+      <c r="A6" s="14"/>
+      <c r="B6" s="13"/>
       <c r="C6" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>90</v>
@@ -3318,14 +3989,14 @@
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="4"/>
-      <c r="B7" s="14"/>
+      <c r="B7" s="7"/>
       <c r="C7" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>90</v>
@@ -3338,14 +4009,14 @@
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="4"/>
-      <c r="B8" s="14"/>
+      <c r="B8" s="7"/>
       <c r="C8" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>90</v>
@@ -3358,7 +4029,7 @@
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -3376,7 +4047,7 @@
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -3389,7 +4060,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:H12"/>
   <sheetViews>
@@ -3406,14 +4077,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8">
-      <c r="C2" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="9"/>
+      <c r="C2" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="11"/>
     </row>
     <row r="3" spans="1:8">
       <c r="C3" s="1" t="s">
@@ -3436,10 +4107,10 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="B4" s="11"/>
+      <c r="A4" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="B4" s="13"/>
       <c r="C4" s="2" t="s">
         <v>88</v>
       </c>
@@ -3458,8 +4129,8 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="12"/>
-      <c r="B5" s="11"/>
+      <c r="A5" s="14"/>
+      <c r="B5" s="13"/>
       <c r="C5" s="5" t="s">
         <v>91</v>
       </c>
@@ -3478,10 +4149,10 @@
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="12"/>
-      <c r="B6" s="11"/>
+      <c r="A6" s="14"/>
+      <c r="B6" s="13"/>
       <c r="C6" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>92</v>
@@ -3490,18 +4161,18 @@
         <v>128</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="4"/>
-      <c r="B7" s="14"/>
+      <c r="B7" s="7"/>
       <c r="C7" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>90</v>
@@ -3514,16 +4185,16 @@
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="B8" s="14"/>
+      <c r="A8" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="B8" s="7"/>
       <c r="C8" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>92</v>
@@ -3532,18 +4203,18 @@
         <v>60</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="4"/>
-      <c r="B9" s="14"/>
+      <c r="B9" s="7"/>
       <c r="C9" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>92</v>
@@ -3552,34 +4223,34 @@
         <v>20</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="4"/>
-      <c r="B10" s="14"/>
+      <c r="B10" s="7"/>
       <c r="C10" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>153</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>154</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="2"/>
       <c r="G10" s="3"/>
       <c r="H10" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="4"/>
-      <c r="B11" s="14"/>
+      <c r="B11" s="7"/>
       <c r="C11" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>90</v>
@@ -3592,7 +4263,7 @@
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -3610,7 +4281,7 @@
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -3624,7 +4295,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:H20"/>
   <sheetViews>
@@ -3639,14 +4310,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8">
-      <c r="C2" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="9"/>
+      <c r="C2" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="11"/>
     </row>
     <row r="3" spans="1:8">
       <c r="C3" s="1" t="s">
@@ -3669,10 +4340,10 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="B4" s="11"/>
+      <c r="A4" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="B4" s="13"/>
       <c r="C4" s="2" t="s">
         <v>88</v>
       </c>
@@ -3691,10 +4362,10 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="12"/>
-      <c r="B5" s="11"/>
+      <c r="A5" s="14"/>
+      <c r="B5" s="13"/>
       <c r="C5" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>90</v>
@@ -3707,14 +4378,14 @@
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="12"/>
-      <c r="B6" s="11"/>
+      <c r="A6" s="14"/>
+      <c r="B6" s="13"/>
       <c r="C6" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>93</v>
@@ -3727,14 +4398,14 @@
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="4"/>
-      <c r="B7" s="14"/>
+      <c r="B7" s="7"/>
       <c r="C7" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>92</v>
@@ -3743,18 +4414,18 @@
         <v>128</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="4"/>
-      <c r="B8" s="14"/>
+      <c r="B8" s="7"/>
       <c r="C8" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>92</v>
@@ -3763,18 +4434,18 @@
         <v>20</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="4"/>
-      <c r="B9" s="14"/>
+      <c r="B9" s="7"/>
       <c r="C9" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>93</v>
@@ -3787,14 +4458,14 @@
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="4"/>
-      <c r="B10" s="14"/>
+      <c r="B10" s="7"/>
       <c r="C10" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>90</v>
@@ -3807,14 +4478,14 @@
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="4"/>
-      <c r="B11" s="14"/>
+      <c r="B11" s="7"/>
       <c r="C11" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>90</v>
@@ -3827,14 +4498,14 @@
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="4"/>
-      <c r="B12" s="14"/>
+      <c r="B12" s="7"/>
       <c r="C12" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>90</v>
@@ -3847,14 +4518,14 @@
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="4"/>
-      <c r="B13" s="14"/>
+      <c r="B13" s="7"/>
       <c r="C13" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>90</v>
@@ -3867,14 +4538,14 @@
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="4"/>
-      <c r="B14" s="14"/>
+      <c r="B14" s="7"/>
       <c r="C14" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>90</v>
@@ -3887,7 +4558,7 @@
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -3905,38 +4576,38 @@
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="17" spans="3:7">
-      <c r="C17" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
+      <c r="C17" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
     </row>
     <row r="18" spans="3:7">
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
     </row>
     <row r="19" spans="3:7">
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
     </row>
     <row r="20" spans="3:7">
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3947,298 +4618,4 @@
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:H15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="8" max="8" width="63.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:8">
-      <c r="C2" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="9"/>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="C3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="3">
-        <v>11</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0</v>
-      </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="12"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="E5" s="3">
-        <v>11</v>
-      </c>
-      <c r="F5" s="5">
-        <v>0</v>
-      </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="5" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="12"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="E6" s="3">
-        <v>128</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="5" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="4"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="E7" s="3">
-        <v>60</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="5" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="4"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="E8" s="3">
-        <v>32</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="5" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="4"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="E9" s="3">
-        <v>256</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="5" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="4"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="E10" s="3">
-        <v>11</v>
-      </c>
-      <c r="F10" s="2">
-        <v>0</v>
-      </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="5" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="4"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="E11" s="3">
-        <v>2</v>
-      </c>
-      <c r="F11" s="2">
-        <v>0</v>
-      </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="5" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="4"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="E12" s="3">
-        <v>2</v>
-      </c>
-      <c r="F12" s="2">
-        <v>0</v>
-      </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="5" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="4"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="E13" s="3">
-        <v>1</v>
-      </c>
-      <c r="F13" s="2">
-        <v>1</v>
-      </c>
-      <c r="G13" s="3"/>
-      <c r="H13" s="5" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="4"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="E14" s="3">
-        <v>11</v>
-      </c>
-      <c r="F14" s="2">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3"/>
-      <c r="H14" s="5" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="C15" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="E15" s="3">
-        <v>11</v>
-      </c>
-      <c r="F15" s="2">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3"/>
-      <c r="H15" s="5" t="s">
-        <v>158</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="A4:B6"/>
-  </mergeCells>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Document/表设计.xlsx
+++ b/Document/表设计.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7860"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7860" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="用户详细信息" sheetId="1" r:id="rId1"/>
@@ -19,12 +19,12 @@
     <sheet name="公众平台菜单" sheetId="10" r:id="rId10"/>
     <sheet name="微信卡卷" sheetId="11" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="202">
   <si>
     <t>用户详细信息(member_info)</t>
   </si>
@@ -789,7 +789,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Tahoma"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">  </t>
     </r>
@@ -851,18 +851,24 @@
   <si>
     <t>菜单状态1启用0禁用</t>
   </si>
+  <si>
+    <t>is_bind</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>tinyint</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否已绑定微信公众平台</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -904,6 +910,17 @@
       <color indexed="10"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1002,62 +1019,32 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="10">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1067,27 +1054,42 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="10">
+  <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="常规 3" xfId="2"/>
-    <cellStyle name="货币" xfId="3" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="百分比" xfId="5" builtinId="5"/>
-    <cellStyle name="货币[0]" xfId="6" builtinId="7"/>
-    <cellStyle name="常规 2" xfId="7"/>
-    <cellStyle name="常规 2 2" xfId="8"/>
-    <cellStyle name="常规_Sheet1" xfId="9"/>
+    <cellStyle name="常规 2" xfId="2"/>
+    <cellStyle name="常规 2 2" xfId="3"/>
+    <cellStyle name="常规 3" xfId="1"/>
+    <cellStyle name="常规_Sheet1" xfId="4"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -1386,6 +1388,7 @@
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
             <a:path w="21600" h="21600"/>
           </a:pathLst>
@@ -1418,567 +1421,565 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A2:H15"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:H2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
-  <cols>
-    <col min="3" max="3" width="16.25" customWidth="1"/>
-    <col min="8" max="8" width="48" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="3:8">
-      <c r="C2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="3"/>
-    </row>
-    <row r="3" spans="3:8">
-      <c r="C3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="4">
-        <v>0</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="8">
-        <v>11</v>
-      </c>
-      <c r="F4" s="7">
-        <v>0</v>
-      </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="9"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="8">
-        <v>11</v>
-      </c>
-      <c r="F5" s="7">
-        <v>0</v>
-      </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="9"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="8">
-        <v>20</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="8"/>
-      <c r="H6" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="3:8">
-      <c r="C7" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="8">
-        <v>11</v>
-      </c>
-      <c r="F7" s="7">
-        <v>0</v>
-      </c>
-      <c r="G7" s="8"/>
-      <c r="H7" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="3:8">
-      <c r="C8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="8">
-        <v>1</v>
-      </c>
-      <c r="F8" s="7">
-        <v>0</v>
-      </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="3:8">
-      <c r="C9" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="8">
-        <v>1</v>
-      </c>
-      <c r="F9" s="7">
-        <v>0</v>
-      </c>
-      <c r="G9" s="8"/>
-      <c r="H9" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="3:8">
-      <c r="C10" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="8">
-        <v>255</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="8"/>
-      <c r="H10" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="3:8">
-      <c r="C11" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="8">
-        <v>1</v>
-      </c>
-      <c r="F11" s="7">
-        <v>0</v>
-      </c>
-      <c r="G11" s="8"/>
-      <c r="H11" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="3:8">
-      <c r="C12" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="8">
-        <v>11</v>
-      </c>
-      <c r="F12" s="7">
-        <v>0</v>
-      </c>
-      <c r="G12" s="8"/>
-      <c r="H12" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="3:8">
-      <c r="C13" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="8">
-        <v>11</v>
-      </c>
-      <c r="F13" s="7">
-        <v>0</v>
-      </c>
-      <c r="G13" s="8"/>
-      <c r="H13" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="3:8">
-      <c r="C14" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="8">
-        <v>11</v>
-      </c>
-      <c r="F14" s="7">
-        <v>1</v>
-      </c>
-      <c r="G14" s="8"/>
-      <c r="H14" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="3:8">
-      <c r="C15" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="8">
-        <v>11</v>
-      </c>
-      <c r="F15" s="7">
-        <v>1</v>
-      </c>
-      <c r="G15" s="8"/>
-      <c r="H15" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="A4:B6"/>
-  </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="3" max="3" width="16.25" customWidth="1"/>
+    <col min="8" max="8" width="48" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:8">
+      <c r="C2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="9"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="11"/>
+      <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="3">
+        <v>11</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="12"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="3">
+        <v>11</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="12"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="3">
+        <v>20</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="C7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="3">
+        <v>11</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="C8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="C9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="C10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="3">
+        <v>255</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="C11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="C12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="3">
+        <v>11</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="C13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="3">
+        <v>11</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="C14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="3">
+        <v>11</v>
+      </c>
+      <c r="F14" s="2">
+        <v>1</v>
+      </c>
+      <c r="G14" s="3"/>
+      <c r="H14" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="C15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="3">
+        <v>11</v>
+      </c>
+      <c r="F15" s="2">
+        <v>1</v>
+      </c>
+      <c r="G15" s="3"/>
+      <c r="H15" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="A4:B6"/>
+  </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="3" max="3" width="17" customWidth="1"/>
     <col min="8" max="8" width="63.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:8">
-      <c r="C2" s="1" t="s">
+    <row r="2" spans="1:8">
+      <c r="C2" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="3"/>
-    </row>
-    <row r="3" spans="3:8">
-      <c r="C3" s="4" t="s">
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="9"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="4">
-        <v>0</v>
-      </c>
-      <c r="G3" s="4" t="s">
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="7" t="s">
+      <c r="B4" s="11"/>
+      <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="8">
-        <v>11</v>
-      </c>
-      <c r="F4" s="7">
-        <v>0</v>
-      </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="7" t="s">
+      <c r="D4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="3">
+        <v>11</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="9"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="7" t="s">
+      <c r="A5" s="12"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="8">
-        <v>11</v>
-      </c>
-      <c r="F5" s="7">
-        <v>0</v>
-      </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="7" t="s">
+      <c r="D5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="3">
+        <v>11</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="2" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="9"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="7" t="s">
+      <c r="A6" s="12"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="3">
         <v>128</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="8"/>
-      <c r="H6" s="7" t="s">
+      <c r="G6" s="3"/>
+      <c r="H6" s="2" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="9"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="7" t="s">
+      <c r="A7" s="4"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="3">
         <v>60</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="8"/>
-      <c r="H7" s="7" t="s">
+      <c r="G7" s="3"/>
+      <c r="H7" s="2" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="9"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="7" t="s">
+      <c r="A8" s="4"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="3">
         <v>32</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="7" t="s">
+      <c r="G8" s="3"/>
+      <c r="H8" s="2" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="9"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="7" t="s">
+      <c r="A9" s="4"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="3">
         <v>256</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="8"/>
-      <c r="H9" s="7" t="s">
+      <c r="G9" s="3"/>
+      <c r="H9" s="2" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="9"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="7" t="s">
+      <c r="A10" s="4"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="D10" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="8">
-        <v>11</v>
-      </c>
-      <c r="F10" s="7">
-        <v>0</v>
-      </c>
-      <c r="G10" s="8"/>
-      <c r="H10" s="7" t="s">
+      <c r="D10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="3">
+        <v>11</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="2" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="9"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="7" t="s">
+      <c r="A11" s="4"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="3">
         <v>2</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="2">
         <v>1</v>
       </c>
-      <c r="G11" s="8"/>
-      <c r="H11" s="7" t="s">
+      <c r="G11" s="3"/>
+      <c r="H11" s="2" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="9"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="7" t="s">
+      <c r="A12" s="4"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="3">
         <v>2</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="2">
         <v>1</v>
       </c>
-      <c r="G12" s="8"/>
-      <c r="H12" s="7" t="s">
+      <c r="G12" s="3"/>
+      <c r="H12" s="2" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="9"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="7" t="s">
+      <c r="A13" s="4"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="3">
         <v>1</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="2">
         <v>1</v>
       </c>
-      <c r="G13" s="8"/>
-      <c r="H13" s="7" t="s">
+      <c r="G13" s="3"/>
+      <c r="H13" s="2" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="9"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="7" t="s">
+      <c r="A14" s="4"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="8">
-        <v>11</v>
-      </c>
-      <c r="F14" s="7">
-        <v>0</v>
-      </c>
-      <c r="G14" s="8"/>
-      <c r="H14" s="7" t="s">
+      <c r="D14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="3">
+        <v>11</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3"/>
+      <c r="H14" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="3:8">
-      <c r="C15" s="7" t="s">
+    <row r="15" spans="1:8">
+      <c r="C15" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="8">
-        <v>11</v>
-      </c>
-      <c r="F15" s="7">
-        <v>0</v>
-      </c>
-      <c r="G15" s="8"/>
-      <c r="H15" s="7" t="s">
+      <c r="D15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="3">
+        <v>11</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3"/>
+      <c r="H15" s="2" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1987,15 +1988,14 @@
     <mergeCell ref="C2:H2"/>
     <mergeCell ref="A4:B6"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
@@ -2004,603 +2004,620 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A2:H33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:H34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="3" max="3" width="16.125" customWidth="1"/>
     <col min="4" max="4" width="9.875" customWidth="1"/>
     <col min="8" max="8" width="60.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:8">
-      <c r="C2" s="1" t="s">
+    <row r="2" spans="1:8">
+      <c r="C2" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="3"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="9"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="4" t="s">
+      <c r="B3" s="11"/>
+      <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="9"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="7" t="s">
+      <c r="A4" s="12"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="8">
-        <v>11</v>
-      </c>
-      <c r="F4" s="7">
-        <v>0</v>
-      </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="7" t="s">
+      <c r="D4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="3">
+        <v>11</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="9"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="7" t="s">
+      <c r="A5" s="12"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="3">
         <v>256</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="7" t="s">
+      <c r="G5" s="3"/>
+      <c r="H5" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="3:8">
-      <c r="C6" s="7" t="s">
+    <row r="6" spans="1:8">
+      <c r="C6" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="3">
         <v>256</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G6" s="8"/>
-      <c r="H6" s="7" t="s">
+      <c r="G6" s="3"/>
+      <c r="H6" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="3:8">
-      <c r="C7" s="7" t="s">
+    <row r="7" spans="1:8">
+      <c r="C7" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="3">
         <v>256</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G7" s="8"/>
-      <c r="H7" s="7" t="s">
+      <c r="G7" s="3"/>
+      <c r="H7" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="3:8">
-      <c r="C8" s="7" t="s">
+    <row r="8" spans="1:8">
+      <c r="C8" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="3">
         <v>256</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="7" t="s">
+      <c r="G8" s="3"/>
+      <c r="H8" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="3:8">
-      <c r="C9" s="7" t="s">
+    <row r="9" spans="1:8">
+      <c r="C9" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="3">
         <v>256</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G9" s="8"/>
-      <c r="H9" s="7" t="s">
+      <c r="G9" s="3"/>
+      <c r="H9" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="3:8">
-      <c r="C10" s="7" t="s">
+    <row r="10" spans="1:8">
+      <c r="C10" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="3">
         <v>256</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G10" s="8"/>
-      <c r="H10" s="7" t="s">
+      <c r="G10" s="3"/>
+      <c r="H10" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="3:8">
-      <c r="C11" s="7" t="s">
+    <row r="11" spans="1:8">
+      <c r="C11" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="3">
         <v>32</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G11" s="8"/>
-      <c r="H11" s="7" t="s">
+      <c r="G11" s="3"/>
+      <c r="H11" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="3:8">
-      <c r="C12" s="7" t="s">
+    <row r="12" spans="1:8">
+      <c r="C12" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="3">
         <v>1</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="2">
         <v>1</v>
       </c>
-      <c r="G12" s="8"/>
-      <c r="H12" s="7" t="s">
+      <c r="G12" s="3"/>
+      <c r="H12" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="3:8">
-      <c r="C13" s="7" t="s">
+    <row r="13" spans="1:8">
+      <c r="C13" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="3">
         <v>256</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G13" s="8"/>
-      <c r="H13" s="7" t="s">
+      <c r="G13" s="3"/>
+      <c r="H13" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1" spans="3:8">
-      <c r="C14" s="7" t="s">
+    <row r="14" spans="1:8" ht="15" customHeight="1">
+      <c r="C14" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="3">
         <v>60</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G14" s="8"/>
-      <c r="H14" s="7" t="s">
+      <c r="G14" s="3"/>
+      <c r="H14" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="3:8">
-      <c r="C15" s="7" t="s">
+    <row r="15" spans="1:8">
+      <c r="C15" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="3">
         <v>128</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G15" s="8"/>
-      <c r="H15" s="7" t="s">
+      <c r="G15" s="3"/>
+      <c r="H15" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="3:8">
-      <c r="C16" s="7" t="s">
+    <row r="16" spans="1:8">
+      <c r="C16" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16" s="3">
         <v>256</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F16" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G16" s="8"/>
-      <c r="H16" s="7" t="s">
+      <c r="G16" s="3"/>
+      <c r="H16" s="2" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="17" spans="3:8">
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17" s="3">
         <v>256</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F17" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G17" s="8"/>
-      <c r="H17" s="7" t="s">
+      <c r="G17" s="3"/>
+      <c r="H17" s="2" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="18" spans="3:8">
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E18" s="3">
         <v>1</v>
       </c>
-      <c r="F18" s="7">
-        <v>0</v>
-      </c>
-      <c r="G18" s="8"/>
-      <c r="H18" s="7" t="s">
+      <c r="F18" s="2">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3"/>
+      <c r="H18" s="2" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="19" spans="3:8">
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="8">
+      <c r="E19" s="3">
         <v>512</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="F19" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G19" s="8"/>
-      <c r="H19" s="7" t="s">
+      <c r="G19" s="3"/>
+      <c r="H19" s="2" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="20" spans="3:8">
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D20" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="8">
-        <v>11</v>
-      </c>
-      <c r="F20" s="7">
-        <v>0</v>
-      </c>
-      <c r="G20" s="8"/>
-      <c r="H20" s="7" t="s">
+      <c r="D20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="3">
+        <v>11</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3"/>
+      <c r="H20" s="2" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="21" spans="3:8">
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D21" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" s="8">
-        <v>11</v>
-      </c>
-      <c r="F21" s="7">
-        <v>0</v>
-      </c>
-      <c r="G21" s="8"/>
-      <c r="H21" s="7" t="s">
+      <c r="D21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="3">
+        <v>11</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3"/>
+      <c r="H21" s="2" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="22" spans="3:8">
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E22" s="8">
+      <c r="E22" s="3">
         <v>255</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="F22" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G22" s="8"/>
-      <c r="H22" s="7" t="s">
+      <c r="G22" s="3"/>
+      <c r="H22" s="2" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="23" spans="3:8">
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D23" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" s="8">
-        <v>11</v>
-      </c>
-      <c r="F23" s="7">
-        <v>0</v>
-      </c>
-      <c r="G23" s="8"/>
-      <c r="H23" s="7" t="s">
+      <c r="D23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="3">
+        <v>11</v>
+      </c>
+      <c r="F23" s="2">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3"/>
+      <c r="H23" s="2" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="24" spans="3:8">
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D24" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E24" s="8">
+      <c r="E24" s="3">
         <v>1</v>
       </c>
-      <c r="F24" s="7">
-        <v>0</v>
-      </c>
-      <c r="G24" s="8"/>
-      <c r="H24" s="7" t="s">
+      <c r="F24" s="2">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3"/>
+      <c r="H24" s="2" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="25" spans="3:8">
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D25" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E25" s="8">
+      <c r="E25" s="3">
         <v>1</v>
       </c>
-      <c r="F25" s="7">
-        <v>0</v>
-      </c>
-      <c r="G25" s="8"/>
-      <c r="H25" s="7" t="s">
+      <c r="F25" s="2">
+        <v>0</v>
+      </c>
+      <c r="G25" s="3"/>
+      <c r="H25" s="2" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="26" spans="3:8">
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="E26" s="3">
+        <v>1</v>
+      </c>
+      <c r="F26" s="2">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3"/>
+      <c r="H26" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="27" spans="3:8">
+      <c r="C27" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D27" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="E26" s="8">
+      <c r="E27" s="3">
         <v>6</v>
       </c>
-      <c r="F26" s="7">
-        <v>0</v>
-      </c>
-      <c r="G26" s="8"/>
-      <c r="H26" s="7" t="s">
+      <c r="F27" s="2">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3"/>
+      <c r="H27" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="27" spans="3:8">
-      <c r="C27" s="7" t="s">
+    <row r="28" spans="3:8">
+      <c r="C28" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D28" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E27" s="8">
+      <c r="E28" s="3">
         <v>4</v>
       </c>
-      <c r="F27" s="7">
+      <c r="F28" s="2">
         <v>1</v>
       </c>
-      <c r="G27" s="8"/>
-      <c r="H27" s="7" t="s">
+      <c r="G28" s="3"/>
+      <c r="H28" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="28" spans="3:8">
-      <c r="C28" s="7" t="s">
+    <row r="29" spans="3:8">
+      <c r="C29" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="D29" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E28" s="8">
+      <c r="E29" s="3">
         <v>1</v>
       </c>
-      <c r="F28" s="7">
-        <v>0</v>
-      </c>
-      <c r="G28" s="8"/>
-      <c r="H28" s="7" t="s">
+      <c r="F29" s="2">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3"/>
+      <c r="H29" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="29" spans="3:8">
-      <c r="C29" s="7" t="s">
+    <row r="30" spans="3:8">
+      <c r="C30" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="D30" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="E29" s="8">
+      <c r="E30" s="3">
         <v>10</v>
       </c>
-      <c r="F29" s="7">
-        <v>0</v>
-      </c>
-      <c r="G29" s="8"/>
-      <c r="H29" s="7" t="s">
+      <c r="F30" s="2">
+        <v>0</v>
+      </c>
+      <c r="G30" s="3"/>
+      <c r="H30" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="30" spans="3:8">
-      <c r="C30" s="7" t="s">
+    <row r="31" spans="3:8">
+      <c r="C31" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D30" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E30" s="8">
-        <v>11</v>
-      </c>
-      <c r="F30" s="7">
-        <v>0</v>
-      </c>
-      <c r="G30" s="8"/>
-      <c r="H30" s="7" t="s">
+      <c r="D31" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" s="3">
+        <v>11</v>
+      </c>
+      <c r="F31" s="2">
+        <v>0</v>
+      </c>
+      <c r="G31" s="3"/>
+      <c r="H31" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="31" spans="3:8">
-      <c r="C31" s="7" t="s">
+    <row r="32" spans="3:8">
+      <c r="C32" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D31" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E31" s="8">
-        <v>11</v>
-      </c>
-      <c r="F31" s="7">
-        <v>0</v>
-      </c>
-      <c r="G31" s="8"/>
-      <c r="H31" s="7" t="s">
+      <c r="D32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="3">
+        <v>11</v>
+      </c>
+      <c r="F32" s="2">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3"/>
+      <c r="H32" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="32" spans="3:8">
-      <c r="C32" s="7" t="s">
+    <row r="33" spans="3:8">
+      <c r="C33" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E32" s="8">
-        <v>11</v>
-      </c>
-      <c r="F32" s="7">
-        <v>0</v>
-      </c>
-      <c r="G32" s="8"/>
-      <c r="H32" s="7" t="s">
+      <c r="D33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="3">
+        <v>11</v>
+      </c>
+      <c r="F33" s="2">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3"/>
+      <c r="H33" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="33" spans="3:8">
-      <c r="C33" s="7" t="s">
+    <row r="34" spans="3:8">
+      <c r="C34" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D33" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E33" s="8">
-        <v>11</v>
-      </c>
-      <c r="F33" s="7">
-        <v>0</v>
-      </c>
-      <c r="G33" s="8"/>
-      <c r="H33" s="7" t="s">
+      <c r="D34" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" s="3">
+        <v>11</v>
+      </c>
+      <c r="F34" s="2">
+        <v>0</v>
+      </c>
+      <c r="G34" s="3"/>
+      <c r="H34" s="2" t="s">
         <v>91</v>
       </c>
     </row>
@@ -2609,259 +2626,259 @@
     <mergeCell ref="C2:H2"/>
     <mergeCell ref="A3:B5"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="3" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="9.875" customWidth="1"/>
     <col min="8" max="8" width="55" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:8">
-      <c r="C2" s="1" t="s">
+    <row r="2" spans="1:8">
+      <c r="C2" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="3"/>
-    </row>
-    <row r="3" spans="3:8">
-      <c r="C3" s="4" t="s">
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="9"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="7" t="s">
+      <c r="B4" s="11"/>
+      <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="8">
-        <v>11</v>
-      </c>
-      <c r="F4" s="7">
-        <v>0</v>
-      </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="7" t="s">
+      <c r="D4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="3">
+        <v>11</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="9"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="7" t="s">
+      <c r="A5" s="12"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="8">
-        <v>11</v>
-      </c>
-      <c r="F5" s="8">
-        <v>0</v>
-      </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="7" t="s">
+      <c r="D5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="3">
+        <v>11</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="3:8">
-      <c r="C6" s="7" t="s">
+    <row r="6" spans="1:8">
+      <c r="C6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="8">
-        <v>11</v>
-      </c>
-      <c r="F6" s="7">
-        <v>0</v>
-      </c>
-      <c r="G6" s="8"/>
-      <c r="H6" s="7" t="s">
+      <c r="D6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="3">
+        <v>11</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="3:8">
-      <c r="C7" s="7" t="s">
+    <row r="7" spans="1:8">
+      <c r="C7" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="3">
         <v>10</v>
       </c>
-      <c r="F7" s="7">
-        <v>0</v>
-      </c>
-      <c r="G7" s="8"/>
-      <c r="H7" s="7" t="s">
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="8" spans="3:8">
-      <c r="C8" s="7" t="s">
+    <row r="8" spans="1:8">
+      <c r="C8" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="3">
         <v>6</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="7" t="s">
+      <c r="G8" s="3"/>
+      <c r="H8" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="9" spans="3:8">
-      <c r="C9" s="7" t="s">
+    <row r="9" spans="1:8">
+      <c r="C9" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="3">
         <v>6</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="2">
         <v>1</v>
       </c>
-      <c r="G9" s="8"/>
-      <c r="H9" s="7" t="s">
+      <c r="G9" s="3"/>
+      <c r="H9" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="10" spans="3:8">
-      <c r="C10" s="7" t="s">
+    <row r="10" spans="1:8">
+      <c r="C10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="3">
         <v>1</v>
       </c>
-      <c r="F10" s="7">
-        <v>0</v>
-      </c>
-      <c r="G10" s="8"/>
-      <c r="H10" s="7" t="s">
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="11" spans="3:8">
-      <c r="C11" s="7" t="s">
+    <row r="11" spans="1:8">
+      <c r="C11" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="3">
         <v>10</v>
       </c>
-      <c r="F11" s="7">
-        <v>0</v>
-      </c>
-      <c r="G11" s="8"/>
-      <c r="H11" s="7" t="s">
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="12" spans="3:8">
-      <c r="C12" s="7" t="s">
+    <row r="12" spans="1:8">
+      <c r="C12" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="8">
-        <v>11</v>
-      </c>
-      <c r="F12" s="7">
-        <v>0</v>
-      </c>
-      <c r="G12" s="8"/>
-      <c r="H12" s="7" t="s">
+      <c r="D12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="3">
+        <v>11</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="13" spans="3:8">
-      <c r="C13" s="7" t="s">
+    <row r="13" spans="1:8">
+      <c r="C13" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="8">
-        <v>11</v>
-      </c>
-      <c r="F13" s="7">
-        <v>0</v>
-      </c>
-      <c r="G13" s="8"/>
-      <c r="H13" s="7" t="s">
+      <c r="D13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="3">
+        <v>11</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="14" spans="3:8">
-      <c r="C14" s="7" t="s">
+    <row r="14" spans="1:8">
+      <c r="C14" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="8">
-        <v>11</v>
-      </c>
-      <c r="F14" s="7">
-        <v>0</v>
-      </c>
-      <c r="G14" s="8"/>
-      <c r="H14" s="7" t="s">
+      <c r="D14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="3">
+        <v>11</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3"/>
+      <c r="H14" s="2" t="s">
         <v>107</v>
       </c>
     </row>
@@ -2870,170 +2887,170 @@
     <mergeCell ref="C2:H2"/>
     <mergeCell ref="A4:B5"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="3" max="3" width="25.25" customWidth="1"/>
     <col min="8" max="8" width="49" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:8">
-      <c r="C2" s="1" t="s">
+    <row r="2" spans="1:8">
+      <c r="C2" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="3"/>
-    </row>
-    <row r="3" spans="3:8">
-      <c r="C3" s="4" t="s">
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="9"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="4">
-        <v>0</v>
-      </c>
-      <c r="G3" s="4" t="s">
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="7" t="s">
+      <c r="B4" s="11"/>
+      <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="8">
-        <v>11</v>
-      </c>
-      <c r="F4" s="7">
-        <v>0</v>
-      </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="7" t="s">
+      <c r="D4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="3">
+        <v>11</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="9"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="7" t="s">
+      <c r="A5" s="12"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="3">
         <v>20</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="7" t="s">
+      <c r="G5" s="3"/>
+      <c r="H5" s="2" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="9"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="7" t="s">
+      <c r="A6" s="12"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="8">
-        <v>11</v>
-      </c>
-      <c r="F6" s="7">
-        <v>0</v>
-      </c>
-      <c r="G6" s="8"/>
-      <c r="H6" s="7" t="s">
+      <c r="D6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="3">
+        <v>11</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="2" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="7" spans="3:8">
-      <c r="C7" s="7" t="s">
+    <row r="7" spans="1:8">
+      <c r="C7" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="3">
         <v>1000</v>
       </c>
-      <c r="F7" s="7">
-        <v>0</v>
-      </c>
-      <c r="G7" s="8"/>
-      <c r="H7" s="7" t="s">
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="8" spans="3:8">
-      <c r="C8" s="7" t="s">
+    <row r="8" spans="1:8">
+      <c r="C8" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="3">
         <v>1000</v>
       </c>
-      <c r="F8" s="7">
-        <v>0</v>
-      </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="7" t="s">
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="9" spans="3:8">
-      <c r="C9" s="7" t="s">
+    <row r="9" spans="1:8">
+      <c r="C9" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="3">
         <v>1</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="2">
         <v>1</v>
       </c>
-      <c r="G9" s="8"/>
-      <c r="H9" s="7" t="s">
+      <c r="G9" s="3"/>
+      <c r="H9" s="2" t="s">
         <v>119</v>
       </c>
     </row>
@@ -3042,296 +3059,295 @@
     <mergeCell ref="C2:H2"/>
     <mergeCell ref="A4:B6"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="3" max="3" width="15.375" customWidth="1"/>
     <col min="8" max="8" width="45.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:8">
-      <c r="C2" s="1" t="s">
+    <row r="2" spans="1:8">
+      <c r="C2" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="3"/>
-    </row>
-    <row r="3" spans="3:8">
-      <c r="C3" s="4" t="s">
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="9"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="4">
-        <v>0</v>
-      </c>
-      <c r="G3" s="4" t="s">
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="7" t="s">
+      <c r="B4" s="11"/>
+      <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="8">
-        <v>11</v>
-      </c>
-      <c r="F4" s="7">
-        <v>0</v>
-      </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="7" t="s">
+      <c r="D4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="3">
+        <v>11</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="9"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="7" t="s">
+      <c r="A5" s="12"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="8">
-        <v>11</v>
-      </c>
-      <c r="F5" s="7">
-        <v>0</v>
-      </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="7" t="s">
+      <c r="D5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="3">
+        <v>11</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="2" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="9"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="7" t="s">
+      <c r="A6" s="12"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="3">
         <v>20</v>
       </c>
-      <c r="F6" s="7">
-        <v>0</v>
-      </c>
-      <c r="G6" s="8"/>
-      <c r="H6" s="7" t="s">
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="3:8">
-      <c r="C7" s="7" t="s">
+    <row r="7" spans="1:8">
+      <c r="C7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="8">
-        <v>11</v>
-      </c>
-      <c r="F7" s="7">
-        <v>0</v>
-      </c>
-      <c r="G7" s="8"/>
-      <c r="H7" s="7" t="s">
+      <c r="E7" s="3">
+        <v>11</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="2" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="8" spans="3:8">
-      <c r="C8" s="7" t="s">
+    <row r="8" spans="1:8">
+      <c r="C8" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="3">
         <v>15</v>
       </c>
-      <c r="F8" s="7">
-        <v>0</v>
-      </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="7" t="s">
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="9" spans="3:8">
-      <c r="C9" s="7" t="s">
+    <row r="9" spans="1:8">
+      <c r="C9" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="8">
-        <v>11</v>
-      </c>
-      <c r="F9" s="7">
-        <v>0</v>
-      </c>
-      <c r="G9" s="8"/>
-      <c r="H9" s="7" t="s">
+      <c r="D9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="3">
+        <v>11</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="2" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="10" spans="3:8">
-      <c r="C10" s="7" t="s">
+    <row r="10" spans="1:8">
+      <c r="C10" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D10" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="8">
-        <v>11</v>
-      </c>
-      <c r="F10" s="7">
-        <v>0</v>
-      </c>
-      <c r="G10" s="8"/>
-      <c r="H10" s="7" t="s">
+      <c r="D10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="3">
+        <v>11</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="2" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="11" spans="3:8">
-      <c r="C11" s="7" t="s">
+    <row r="11" spans="1:8">
+      <c r="C11" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="D11" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="8">
-        <v>11</v>
-      </c>
-      <c r="F11" s="7">
-        <v>0</v>
-      </c>
-      <c r="G11" s="8"/>
-      <c r="H11" s="7" t="s">
+      <c r="D11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="3">
+        <v>11</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="2" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="12" spans="3:8">
-      <c r="C12" s="7" t="s">
+    <row r="12" spans="1:8">
+      <c r="C12" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="3">
         <v>256</v>
       </c>
-      <c r="F12" s="7">
-        <v>0</v>
-      </c>
-      <c r="G12" s="8"/>
-      <c r="H12" s="7" t="s">
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="2" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="13" spans="3:8">
-      <c r="C13" s="7" t="s">
+    <row r="13" spans="1:8">
+      <c r="C13" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="3">
         <v>1</v>
       </c>
-      <c r="F13" s="7">
-        <v>0</v>
-      </c>
-      <c r="G13" s="8"/>
-      <c r="H13" s="7" t="s">
+      <c r="F13" s="2">
+        <v>0</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="2" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="14" spans="3:8">
-      <c r="C14" s="7" t="s">
+    <row r="14" spans="1:8">
+      <c r="C14" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="3">
         <v>1</v>
       </c>
-      <c r="F14" s="7">
-        <v>0</v>
-      </c>
-      <c r="G14" s="8"/>
-      <c r="H14" s="7" t="s">
+      <c r="F14" s="2">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3"/>
+      <c r="H14" s="2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="15" spans="3:8">
-      <c r="C15" s="7" t="s">
+    <row r="15" spans="1:8">
+      <c r="C15" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="8">
-        <v>11</v>
-      </c>
-      <c r="F15" s="7">
+      <c r="D15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="3">
+        <v>11</v>
+      </c>
+      <c r="F15" s="2">
         <v>1</v>
       </c>
-      <c r="G15" s="8"/>
-      <c r="H15" s="7" t="s">
+      <c r="G15" s="3"/>
+      <c r="H15" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="3:8">
-      <c r="C16" s="7" t="s">
+    <row r="16" spans="1:8">
+      <c r="C16" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="8">
-        <v>11</v>
-      </c>
-      <c r="F16" s="7">
+      <c r="D16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="3">
+        <v>11</v>
+      </c>
+      <c r="F16" s="2">
         <v>1</v>
       </c>
-      <c r="G16" s="8"/>
-      <c r="H16" s="7" t="s">
+      <c r="G16" s="3"/>
+      <c r="H16" s="2" t="s">
         <v>35</v>
       </c>
     </row>
@@ -3340,300 +3356,299 @@
     <mergeCell ref="C2:H2"/>
     <mergeCell ref="A4:B6"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="3" max="3" width="18.375" customWidth="1"/>
     <col min="8" max="8" width="64" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:8">
-      <c r="C2" s="1" t="s">
+    <row r="2" spans="1:8">
+      <c r="C2" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="3"/>
-    </row>
-    <row r="3" spans="3:8">
-      <c r="C3" s="4" t="s">
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="9"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="4">
-        <v>0</v>
-      </c>
-      <c r="G3" s="4" t="s">
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="7" t="s">
+      <c r="B4" s="11"/>
+      <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="8">
-        <v>11</v>
-      </c>
-      <c r="F4" s="7">
-        <v>0</v>
-      </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="7" t="s">
+      <c r="D4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="3">
+        <v>11</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="9"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="7" t="s">
+      <c r="A5" s="12"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="8">
-        <v>11</v>
-      </c>
-      <c r="F5" s="7">
-        <v>0</v>
-      </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="7" t="s">
+      <c r="D5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="3">
+        <v>11</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="2" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="9"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="7" t="s">
+      <c r="A6" s="12"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="3">
         <v>20</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="8"/>
-      <c r="H6" s="7" t="s">
+      <c r="G6" s="3"/>
+      <c r="H6" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="9"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="7" t="s">
+      <c r="A7" s="4"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="8">
-        <v>11</v>
-      </c>
-      <c r="F7" s="7">
-        <v>0</v>
-      </c>
-      <c r="G7" s="8"/>
-      <c r="H7" s="7" t="s">
+      <c r="D7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="3">
+        <v>11</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="2" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="9"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="7" t="s">
+      <c r="A8" s="4"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="3">
         <v>128</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="7" t="s">
+      <c r="G8" s="3"/>
+      <c r="H8" s="2" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="9" spans="3:8">
-      <c r="C9" s="7" t="s">
+    <row r="9" spans="1:8">
+      <c r="C9" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="3">
         <v>60</v>
       </c>
-      <c r="F9" s="7">
-        <v>0</v>
-      </c>
-      <c r="G9" s="8"/>
-      <c r="H9" s="7" t="s">
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="2" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="10" spans="3:8">
-      <c r="C10" s="7" t="s">
+    <row r="10" spans="1:8">
+      <c r="C10" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="3">
         <v>6</v>
       </c>
-      <c r="F10" s="7">
-        <v>0</v>
-      </c>
-      <c r="G10" s="8"/>
-      <c r="H10" s="7" t="s">
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="2" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="11" spans="3:8">
-      <c r="C11" s="7" t="s">
+    <row r="11" spans="1:8">
+      <c r="C11" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="3">
         <v>1</v>
       </c>
-      <c r="F11" s="7">
-        <v>0</v>
-      </c>
-      <c r="G11" s="8"/>
-      <c r="H11" s="7" t="s">
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="2" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="12" spans="3:8">
-      <c r="C12" s="7" t="s">
+    <row r="12" spans="1:8">
+      <c r="C12" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="D12" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="8">
-        <v>11</v>
-      </c>
-      <c r="F12" s="7">
-        <v>0</v>
-      </c>
-      <c r="G12" s="8"/>
-      <c r="H12" s="7" t="s">
+      <c r="D12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="3">
+        <v>11</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="2" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="13" spans="3:8">
-      <c r="C13" s="7" t="s">
+    <row r="13" spans="1:8">
+      <c r="C13" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="D13" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="8">
-        <v>11</v>
-      </c>
-      <c r="F13" s="7">
-        <v>0</v>
-      </c>
-      <c r="G13" s="8"/>
-      <c r="H13" s="7" t="s">
+      <c r="D13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="3">
+        <v>11</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="2" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="14" spans="3:8">
-      <c r="C14" s="7" t="s">
+    <row r="14" spans="1:8">
+      <c r="C14" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="3">
         <v>1</v>
       </c>
-      <c r="F14" s="7">
-        <v>0</v>
-      </c>
-      <c r="G14" s="8"/>
-      <c r="H14" s="7" t="s">
+      <c r="F14" s="2">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3"/>
+      <c r="H14" s="2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="15" spans="3:8">
-      <c r="C15" s="7" t="s">
+    <row r="15" spans="1:8">
+      <c r="C15" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="8">
-        <v>11</v>
-      </c>
-      <c r="F15" s="7">
+      <c r="D15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="3">
+        <v>11</v>
+      </c>
+      <c r="F15" s="2">
         <v>1</v>
       </c>
-      <c r="G15" s="8"/>
-      <c r="H15" s="7" t="s">
+      <c r="G15" s="3"/>
+      <c r="H15" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="3:8">
-      <c r="C16" s="7" t="s">
+    <row r="16" spans="1:8">
+      <c r="C16" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="8">
-        <v>11</v>
-      </c>
-      <c r="F16" s="7">
+      <c r="D16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="3">
+        <v>11</v>
+      </c>
+      <c r="F16" s="2">
         <v>1</v>
       </c>
-      <c r="G16" s="8"/>
-      <c r="H16" s="7" t="s">
+      <c r="G16" s="3"/>
+      <c r="H16" s="2" t="s">
         <v>35</v>
       </c>
     </row>
@@ -3642,174 +3657,173 @@
     <mergeCell ref="C2:H2"/>
     <mergeCell ref="A4:B6"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="3" max="3" width="16" customWidth="1"/>
     <col min="8" max="8" width="63" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:8">
-      <c r="C2" s="1" t="s">
+    <row r="2" spans="1:8">
+      <c r="C2" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="3"/>
-    </row>
-    <row r="3" spans="3:8">
-      <c r="C3" s="4" t="s">
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="9"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="4">
-        <v>0</v>
-      </c>
-      <c r="G3" s="4" t="s">
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="7" t="s">
+      <c r="B4" s="11"/>
+      <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="8">
-        <v>11</v>
-      </c>
-      <c r="F4" s="7">
-        <v>0</v>
-      </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="7" t="s">
+      <c r="D4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="3">
+        <v>11</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="9"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="7" t="s">
+      <c r="A5" s="12"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="8">
-        <v>11</v>
-      </c>
-      <c r="F5" s="7">
-        <v>0</v>
-      </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="7" t="s">
+      <c r="D5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="3">
+        <v>11</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="2" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="9"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="7" t="s">
+      <c r="A6" s="12"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="3">
         <v>128</v>
       </c>
-      <c r="F6" s="7">
-        <v>0</v>
-      </c>
-      <c r="G6" s="8"/>
-      <c r="H6" s="7" t="s">
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="2" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="9"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="7" t="s">
+      <c r="A7" s="4"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="8">
-        <v>11</v>
-      </c>
-      <c r="F7" s="7">
-        <v>0</v>
-      </c>
-      <c r="G7" s="8"/>
-      <c r="H7" s="7" t="s">
+      <c r="D7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="3">
+        <v>11</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="2" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="9"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="7" t="s">
+      <c r="A8" s="4"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="8">
-        <v>11</v>
-      </c>
-      <c r="F8" s="7">
-        <v>0</v>
-      </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="7" t="s">
+      <c r="D8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="3">
+        <v>11</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="2" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="9" spans="3:8">
-      <c r="C9" s="7" t="s">
+    <row r="9" spans="1:8">
+      <c r="C9" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="8">
-        <v>11</v>
-      </c>
-      <c r="F9" s="7">
-        <v>0</v>
-      </c>
-      <c r="G9" s="8"/>
-      <c r="H9" s="7" t="s">
+      <c r="D9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="3">
+        <v>11</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="2" t="s">
         <v>156</v>
       </c>
     </row>
@@ -3818,22 +3832,21 @@
     <mergeCell ref="C2:H2"/>
     <mergeCell ref="A4:B6"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="13.5" customWidth="1"/>
     <col min="3" max="3" width="17.125" customWidth="1"/>
@@ -3841,211 +3854,211 @@
     <col min="8" max="8" width="64.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:8">
-      <c r="C2" s="1" t="s">
+    <row r="2" spans="1:8">
+      <c r="C2" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="3"/>
-    </row>
-    <row r="3" spans="3:8">
-      <c r="C3" s="4" t="s">
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="9"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="4">
-        <v>0</v>
-      </c>
-      <c r="G3" s="4" t="s">
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="7" t="s">
+      <c r="B4" s="11"/>
+      <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="8">
-        <v>11</v>
-      </c>
-      <c r="F4" s="7">
-        <v>0</v>
-      </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="7" t="s">
+      <c r="D4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="3">
+        <v>11</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="9"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="7" t="s">
+      <c r="A5" s="12"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="8">
-        <v>11</v>
-      </c>
-      <c r="F5" s="7">
-        <v>0</v>
-      </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="7" t="s">
+      <c r="D5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="3">
+        <v>11</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="2" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="9"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="7" t="s">
+      <c r="A6" s="12"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="3">
         <v>128</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="8"/>
-      <c r="H6" s="7" t="s">
+      <c r="G6" s="3"/>
+      <c r="H6" s="2" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="9"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="7" t="s">
+      <c r="A7" s="4"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="8">
-        <v>11</v>
-      </c>
-      <c r="F7" s="7">
-        <v>0</v>
-      </c>
-      <c r="G7" s="8"/>
-      <c r="H7" s="7" t="s">
+      <c r="D7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="3">
+        <v>11</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="2" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="7" t="s">
+      <c r="B8" s="5"/>
+      <c r="C8" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="3">
         <v>60</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="7" t="s">
+      <c r="G8" s="3"/>
+      <c r="H8" s="2" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="9"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="7" t="s">
+      <c r="A9" s="4"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="3">
         <v>20</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="8"/>
-      <c r="H9" s="7" t="s">
+      <c r="G9" s="3"/>
+      <c r="H9" s="2" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="9"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="7" t="s">
+      <c r="A10" s="4"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="7" t="s">
+      <c r="E10" s="3"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="2" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="9"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="7" t="s">
+      <c r="A11" s="4"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="8">
-        <v>11</v>
-      </c>
-      <c r="F11" s="7">
-        <v>0</v>
-      </c>
-      <c r="G11" s="8"/>
-      <c r="H11" s="7" t="s">
+      <c r="D11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="3">
+        <v>11</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="2" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="12" spans="3:8">
-      <c r="C12" s="7" t="s">
+    <row r="12" spans="1:8">
+      <c r="C12" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="8">
-        <v>11</v>
-      </c>
-      <c r="F12" s="7">
-        <v>0</v>
-      </c>
-      <c r="G12" s="8"/>
-      <c r="H12" s="7" t="s">
+      <c r="D12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="3">
+        <v>11</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="2" t="s">
         <v>35</v>
       </c>
     </row>
@@ -4054,326 +4067,325 @@
     <mergeCell ref="C2:H2"/>
     <mergeCell ref="A4:B6"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="3" max="3" width="21.875" customWidth="1"/>
     <col min="8" max="8" width="64.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:8">
-      <c r="C2" s="1" t="s">
+    <row r="2" spans="1:8">
+      <c r="C2" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="3"/>
-    </row>
-    <row r="3" spans="3:8">
-      <c r="C3" s="4" t="s">
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="9"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="4">
-        <v>0</v>
-      </c>
-      <c r="G3" s="4" t="s">
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="7" t="s">
+      <c r="B4" s="11"/>
+      <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="8">
-        <v>11</v>
-      </c>
-      <c r="F4" s="7">
-        <v>0</v>
-      </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="7" t="s">
+      <c r="D4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="3">
+        <v>11</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="9"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="7" t="s">
+      <c r="A5" s="12"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="8">
-        <v>11</v>
-      </c>
-      <c r="F5" s="7">
-        <v>0</v>
-      </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="7" t="s">
+      <c r="D5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="3">
+        <v>11</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="2" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="9"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="7" t="s">
+      <c r="A6" s="12"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="3">
         <v>1</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="2">
         <v>1</v>
       </c>
-      <c r="G6" s="8"/>
-      <c r="H6" s="7" t="s">
+      <c r="G6" s="3"/>
+      <c r="H6" s="2" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="9"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="7" t="s">
+      <c r="A7" s="4"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="3">
         <v>128</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="8"/>
-      <c r="H7" s="7" t="s">
+      <c r="G7" s="3"/>
+      <c r="H7" s="2" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="9"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="7" t="s">
+      <c r="A8" s="4"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="3">
         <v>20</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="7" t="s">
+      <c r="G8" s="3"/>
+      <c r="H8" s="2" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="9"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="7" t="s">
+      <c r="A9" s="4"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="3">
         <v>1</v>
       </c>
-      <c r="F9" s="7">
-        <v>0</v>
-      </c>
-      <c r="G9" s="8"/>
-      <c r="H9" s="7" t="s">
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="2" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="9"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="7" t="s">
+      <c r="A10" s="4"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="D10" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="8">
-        <v>11</v>
-      </c>
-      <c r="F10" s="7">
-        <v>0</v>
-      </c>
-      <c r="G10" s="8"/>
-      <c r="H10" s="7" t="s">
+      <c r="D10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="3">
+        <v>11</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="2" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="9"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="7" t="s">
+      <c r="A11" s="4"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="D11" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="8">
-        <v>11</v>
-      </c>
-      <c r="F11" s="7">
-        <v>0</v>
-      </c>
-      <c r="G11" s="8"/>
-      <c r="H11" s="7" t="s">
+      <c r="D11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="3">
+        <v>11</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="2" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="9"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="7" t="s">
+      <c r="A12" s="4"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="D12" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="8">
-        <v>11</v>
-      </c>
-      <c r="F12" s="7">
-        <v>0</v>
-      </c>
-      <c r="G12" s="8"/>
-      <c r="H12" s="7" t="s">
+      <c r="D12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="3">
+        <v>11</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="2" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="9"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="7" t="s">
+      <c r="A13" s="4"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="D13" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="8">
-        <v>11</v>
-      </c>
-      <c r="F13" s="7">
-        <v>0</v>
-      </c>
-      <c r="G13" s="8"/>
-      <c r="H13" s="7" t="s">
+      <c r="D13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="3">
+        <v>11</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="2" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="9"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="7" t="s">
+      <c r="A14" s="4"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="D14" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="8">
-        <v>11</v>
-      </c>
-      <c r="F14" s="7">
-        <v>0</v>
-      </c>
-      <c r="G14" s="8"/>
-      <c r="H14" s="7" t="s">
+      <c r="D14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="3">
+        <v>11</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3"/>
+      <c r="H14" s="2" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="15" spans="3:8">
-      <c r="C15" s="7" t="s">
+    <row r="15" spans="1:8">
+      <c r="C15" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="8">
-        <v>11</v>
-      </c>
-      <c r="F15" s="7">
-        <v>0</v>
-      </c>
-      <c r="G15" s="8"/>
-      <c r="H15" s="7" t="s">
+      <c r="D15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="3">
+        <v>11</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3"/>
+      <c r="H15" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="17" spans="3:7">
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
     </row>
     <row r="18" spans="3:7">
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
     </row>
     <row r="19" spans="3:7">
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
     </row>
     <row r="20" spans="3:7">
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4381,8 +4393,8 @@
     <mergeCell ref="A4:B6"/>
     <mergeCell ref="C17:G20"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/Document/表设计.xlsx
+++ b/Document/表设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7860" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7860" firstSheet="4" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="用户详细信息" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="206">
   <si>
     <t>用户详细信息(member_info)</t>
   </si>
@@ -861,6 +861,22 @@
   </si>
   <si>
     <t>是否已绑定微信公众平台</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>menu_content</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>空字符串</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信菜单click点击事件对应的自定义回复内容</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1036,7 +1052,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1054,6 +1070,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1435,14 +1454,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8">
-      <c r="C2" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="9"/>
+      <c r="C2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="10"/>
     </row>
     <row r="3" spans="1:8">
       <c r="C3" s="1" t="s">
@@ -1465,10 +1484,10 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="11"/>
+      <c r="B4" s="12"/>
       <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
@@ -1487,8 +1506,8 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="12"/>
-      <c r="B5" s="11"/>
+      <c r="A5" s="13"/>
+      <c r="B5" s="12"/>
       <c r="C5" s="2" t="s">
         <v>10</v>
       </c>
@@ -1507,8 +1526,8 @@
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="12"/>
-      <c r="B6" s="11"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="12"/>
       <c r="C6" s="2" t="s">
         <v>12</v>
       </c>
@@ -1701,10 +1720,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:H15"/>
+  <dimension ref="A2:H16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1714,14 +1733,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8">
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="10"/>
     </row>
     <row r="3" spans="1:8">
       <c r="C3" s="1" t="s">
@@ -1744,10 +1763,10 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="11"/>
+      <c r="B4" s="12"/>
       <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
@@ -1766,8 +1785,8 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="12"/>
-      <c r="B5" s="11"/>
+      <c r="A5" s="13"/>
+      <c r="B5" s="12"/>
       <c r="C5" s="2" t="s">
         <v>93</v>
       </c>
@@ -1786,8 +1805,8 @@
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="12"/>
-      <c r="B6" s="11"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="12"/>
       <c r="C6" s="2" t="s">
         <v>184</v>
       </c>
@@ -1866,50 +1885,50 @@
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="4"/>
+      <c r="A10" s="7"/>
       <c r="B10" s="5"/>
       <c r="C10" s="2" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>8</v>
+        <v>203</v>
       </c>
       <c r="E10" s="3">
-        <v>11</v>
-      </c>
-      <c r="F10" s="2">
-        <v>0</v>
+        <v>256</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>204</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="2" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E11" s="3">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="F11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>20</v>
@@ -1922,52 +1941,54 @@
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
       <c r="C13" s="2" t="s">
-        <v>26</v>
+        <v>196</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E13" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13" s="2">
         <v>1</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="4"/>
       <c r="B14" s="5"/>
       <c r="C14" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="E14" s="3">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="2" t="s">
-        <v>33</v>
+        <v>198</v>
       </c>
     </row>
     <row r="15" spans="1:8">
+      <c r="A15" s="4"/>
+      <c r="B15" s="5"/>
       <c r="C15" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>8</v>
@@ -1980,6 +2001,24 @@
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="C16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="3">
+        <v>11</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0</v>
+      </c>
+      <c r="G16" s="3"/>
+      <c r="H16" s="2" t="s">
         <v>35</v>
       </c>
     </row>
@@ -2014,8 +2053,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E59" sqref="E59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2026,20 +2065,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8">
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="10"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="11"/>
+      <c r="B3" s="12"/>
       <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
@@ -2060,8 +2099,8 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="12"/>
-      <c r="B4" s="11"/>
+      <c r="A4" s="13"/>
+      <c r="B4" s="12"/>
       <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
@@ -2080,8 +2119,8 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="12"/>
-      <c r="B5" s="11"/>
+      <c r="A5" s="13"/>
+      <c r="B5" s="12"/>
       <c r="C5" s="2" t="s">
         <v>38</v>
       </c>
@@ -2649,14 +2688,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8">
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="10"/>
     </row>
     <row r="3" spans="1:8">
       <c r="C3" s="1" t="s">
@@ -2679,10 +2718,10 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="11"/>
+      <c r="B4" s="12"/>
       <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
@@ -2701,8 +2740,8 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="12"/>
-      <c r="B5" s="11"/>
+      <c r="A5" s="13"/>
+      <c r="B5" s="12"/>
       <c r="C5" s="2" t="s">
         <v>93</v>
       </c>
@@ -2909,14 +2948,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8">
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="10"/>
     </row>
     <row r="3" spans="1:8">
       <c r="C3" s="1" t="s">
@@ -2939,10 +2978,10 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="11"/>
+      <c r="B4" s="12"/>
       <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
@@ -2961,8 +3000,8 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="12"/>
-      <c r="B5" s="11"/>
+      <c r="A5" s="13"/>
+      <c r="B5" s="12"/>
       <c r="C5" s="2" t="s">
         <v>109</v>
       </c>
@@ -2981,8 +3020,8 @@
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="12"/>
-      <c r="B6" s="11"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="12"/>
       <c r="C6" s="2" t="s">
         <v>112</v>
       </c>
@@ -3080,14 +3119,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8">
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="10"/>
     </row>
     <row r="3" spans="1:8">
       <c r="C3" s="1" t="s">
@@ -3110,10 +3149,10 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="11"/>
+      <c r="B4" s="12"/>
       <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
@@ -3132,8 +3171,8 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="12"/>
-      <c r="B5" s="11"/>
+      <c r="A5" s="13"/>
+      <c r="B5" s="12"/>
       <c r="C5" s="2" t="s">
         <v>10</v>
       </c>
@@ -3152,8 +3191,8 @@
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="12"/>
-      <c r="B6" s="11"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="12"/>
       <c r="C6" s="2" t="s">
         <v>12</v>
       </c>
@@ -3377,14 +3416,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8">
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="10"/>
     </row>
     <row r="3" spans="1:8">
       <c r="C3" s="1" t="s">
@@ -3407,10 +3446,10 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="11"/>
+      <c r="B4" s="12"/>
       <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
@@ -3429,8 +3468,8 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="12"/>
-      <c r="B5" s="11"/>
+      <c r="A5" s="13"/>
+      <c r="B5" s="12"/>
       <c r="C5" s="2" t="s">
         <v>10</v>
       </c>
@@ -3449,8 +3488,8 @@
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="12"/>
-      <c r="B6" s="11"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="12"/>
       <c r="C6" s="2" t="s">
         <v>137</v>
       </c>
@@ -3678,14 +3717,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8">
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="10"/>
     </row>
     <row r="3" spans="1:8">
       <c r="C3" s="1" t="s">
@@ -3708,10 +3747,10 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="11"/>
+      <c r="B4" s="12"/>
       <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
@@ -3730,8 +3769,8 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="12"/>
-      <c r="B5" s="11"/>
+      <c r="A5" s="13"/>
+      <c r="B5" s="12"/>
       <c r="C5" s="2" t="s">
         <v>93</v>
       </c>
@@ -3750,8 +3789,8 @@
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="12"/>
-      <c r="B6" s="11"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="12"/>
       <c r="C6" s="2" t="s">
         <v>152</v>
       </c>
@@ -3855,14 +3894,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8">
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="10"/>
     </row>
     <row r="3" spans="1:8">
       <c r="C3" s="1" t="s">
@@ -3885,10 +3924,10 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="B4" s="11"/>
+      <c r="B4" s="12"/>
       <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
@@ -3907,8 +3946,8 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="12"/>
-      <c r="B5" s="11"/>
+      <c r="A5" s="13"/>
+      <c r="B5" s="12"/>
       <c r="C5" s="2" t="s">
         <v>10</v>
       </c>
@@ -3927,8 +3966,8 @@
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="12"/>
-      <c r="B6" s="11"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="12"/>
       <c r="C6" s="2" t="s">
         <v>139</v>
       </c>
@@ -4088,14 +4127,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8">
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="10"/>
     </row>
     <row r="3" spans="1:8">
       <c r="C3" s="1" t="s">
@@ -4118,10 +4157,10 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="11"/>
+      <c r="B4" s="12"/>
       <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
@@ -4140,8 +4179,8 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="12"/>
-      <c r="B5" s="11"/>
+      <c r="A5" s="13"/>
+      <c r="B5" s="12"/>
       <c r="C5" s="2" t="s">
         <v>93</v>
       </c>
@@ -4160,8 +4199,8 @@
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="12"/>
-      <c r="B6" s="11"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="12"/>
       <c r="C6" s="2" t="s">
         <v>167</v>
       </c>
@@ -4358,34 +4397,34 @@
       </c>
     </row>
     <row r="17" spans="3:7">
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="14" t="s">
         <v>182</v>
       </c>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
     </row>
     <row r="18" spans="3:7">
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
     </row>
     <row r="19" spans="3:7">
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
     </row>
     <row r="20" spans="3:7">
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="3">
